--- a/great_war_1916.xlsx
+++ b/great_war_1916.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="515">
   <si>
     <t>unit</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Gallipoli</t>
   </si>
   <si>
-    <t>German E. Afria</t>
-  </si>
-  <si>
     <t>German Southwest Africa</t>
   </si>
   <si>
@@ -1102,18 +1099,12 @@
     <t>SZ 34</t>
   </si>
   <si>
-    <t>SZ 35</t>
-  </si>
-  <si>
     <t>SZ 36</t>
   </si>
   <si>
     <t>SZ 37</t>
   </si>
   <si>
-    <t>SZ 38</t>
-  </si>
-  <si>
     <t>SZ 39</t>
   </si>
   <si>
@@ -1501,9 +1492,6 @@
     <t>Bohemia</t>
   </si>
   <si>
-    <t>Barvaria</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
@@ -1565,6 +1553,18 @@
   </si>
   <si>
     <t>Bolsheviks</t>
+  </si>
+  <si>
+    <t>Bavaria</t>
+  </si>
+  <si>
+    <t>RR 14</t>
+  </si>
+  <si>
+    <t>SZ 29</t>
+  </si>
+  <si>
+    <t>German E. Afrika</t>
   </si>
 </sst>
 </file>
@@ -2907,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3049,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3071,13 +3071,13 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3085,13 +3085,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3119,7 +3119,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3133,7 +3133,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3161,7 +3161,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3169,30 +3169,30 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3245,7 +3245,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3259,7 +3259,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>465</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>461</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>462</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3295,83 +3295,77 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>468</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>451</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -3379,27 +3373,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>489</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3407,27 +3401,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>503</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3435,27 +3429,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3463,72 +3457,72 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>481</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>507</v>
+        <v>97</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,7 +3533,7 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -3553,7 +3547,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3561,27 +3555,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>455</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>458</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3592,7 +3586,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -3606,7 +3600,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3614,13 +3608,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>473</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3628,13 +3622,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>476</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3648,7 +3642,7 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3662,7 +3656,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3676,7 +3670,7 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3690,7 +3684,7 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3704,7 +3698,7 @@
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3718,7 +3712,7 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3732,7 +3726,7 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3746,7 +3740,7 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3760,7 +3754,7 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3774,7 +3768,7 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3788,7 +3782,7 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3796,35 +3790,35 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C56" t="s">
-        <v>449</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3838,7 +3832,7 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3846,13 +3840,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3866,7 +3860,7 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3880,7 +3874,7 @@
         <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3888,13 +3882,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3908,7 +3902,7 @@
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3922,7 +3916,7 @@
         <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3936,7 +3930,7 @@
         <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3944,13 +3938,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3964,7 +3958,7 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -3978,7 +3972,7 @@
         <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3986,13 +3980,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>514</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4000,13 +3994,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4014,13 +4008,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4028,13 +4022,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4042,13 +4036,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4056,35 +4050,35 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>42</v>
@@ -4092,27 +4086,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4120,41 +4114,41 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>491</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -4162,13 +4156,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4176,13 +4170,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -4190,13 +4184,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4204,13 +4198,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4218,41 +4212,41 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4260,41 +4254,41 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>475</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -4302,13 +4296,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4316,13 +4310,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4330,13 +4324,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4344,13 +4338,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D96">
         <v>10</v>
@@ -4358,13 +4352,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4372,13 +4366,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4386,27 +4380,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>501</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>499</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4414,41 +4408,41 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>505</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>453</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4456,27 +4450,27 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>495</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -4484,13 +4478,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -4498,13 +4492,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -4512,13 +4506,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -4526,13 +4520,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4540,13 +4534,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -4554,13 +4548,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4568,13 +4562,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -4582,13 +4576,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4596,13 +4590,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4610,13 +4604,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -4624,13 +4618,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -4638,13 +4632,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>156</v>
+        <v>493</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4652,13 +4646,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>497</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4666,7 +4660,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>42</v>
@@ -4674,13 +4668,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>476</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4688,13 +4682,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4702,13 +4696,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4716,13 +4710,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -4730,13 +4724,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D124">
         <v>12</v>
@@ -4744,13 +4738,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C125" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -4758,7 +4752,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>42</v>
@@ -4766,13 +4760,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C127" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -4780,27 +4774,27 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -4808,27 +4802,27 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="D130">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -4836,13 +4830,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4850,13 +4844,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -4864,13 +4858,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>506</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4878,13 +4872,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>167</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4892,55 +4886,91 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C136" t="s">
+        <v>448</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C137" t="s">
+        <v>471</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C138" t="s">
+        <v>465</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>485</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C139" t="s">
+        <v>486</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C140" t="s">
+        <v>464</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>472</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C141" t="s">
+        <v>471</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
         <v>39</v>
@@ -4948,7 +4978,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
         <v>39</v>
@@ -4956,7 +4986,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
@@ -4964,7 +4994,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
@@ -4972,7 +5002,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -4980,7 +5010,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
@@ -4988,7 +5018,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
@@ -4996,7 +5026,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
@@ -5004,7 +5034,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
@@ -5012,7 +5042,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
@@ -5020,7 +5050,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
         <v>39</v>
@@ -5028,7 +5058,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
         <v>39</v>
@@ -5036,7 +5066,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
         <v>39</v>
@@ -5044,7 +5074,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
         <v>39</v>
@@ -5052,7 +5082,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
@@ -5060,7 +5090,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
         <v>39</v>
@@ -5068,7 +5098,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
         <v>39</v>
@@ -5076,7 +5106,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
         <v>39</v>
@@ -5084,7 +5114,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B160" t="s">
         <v>39</v>
@@ -5092,7 +5122,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
         <v>39</v>
@@ -5100,7 +5130,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
         <v>39</v>
@@ -5108,7 +5138,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
         <v>39</v>
@@ -5116,7 +5146,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
         <v>39</v>
@@ -5124,7 +5154,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
         <v>39</v>
@@ -5132,7 +5162,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
         <v>39</v>
@@ -5140,7 +5170,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
         <v>39</v>
@@ -5148,7 +5178,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
         <v>39</v>
@@ -5156,7 +5186,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
@@ -5164,7 +5194,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B170" t="s">
         <v>39</v>
@@ -5172,7 +5202,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
         <v>39</v>
@@ -5180,7 +5210,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
         <v>39</v>
@@ -5188,7 +5218,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
         <v>39</v>
@@ -5196,7 +5226,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
         <v>39</v>
@@ -5204,7 +5234,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B175" t="s">
         <v>39</v>
@@ -5212,7 +5242,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
         <v>39</v>
@@ -5220,7 +5250,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
         <v>39</v>
@@ -5228,7 +5258,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B178" t="s">
         <v>39</v>
@@ -5236,7 +5266,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B179" t="s">
         <v>39</v>
@@ -5244,7 +5274,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
@@ -5252,7 +5282,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
         <v>39</v>
@@ -5260,7 +5290,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B182" t="s">
         <v>39</v>
@@ -5268,7 +5298,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B183" t="s">
         <v>39</v>
@@ -5276,7 +5306,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
@@ -5284,7 +5314,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B185" t="s">
         <v>39</v>
@@ -5292,7 +5322,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B186" t="s">
         <v>39</v>
@@ -5300,7 +5330,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>512</v>
       </c>
       <c r="B187" t="s">
         <v>39</v>
@@ -5308,7 +5338,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B188" t="s">
         <v>39</v>
@@ -5316,7 +5346,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B189" t="s">
         <v>39</v>
@@ -5324,7 +5354,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B190" t="s">
         <v>39</v>
@@ -5332,7 +5362,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B191" t="s">
         <v>39</v>
@@ -5340,7 +5370,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B192" t="s">
         <v>39</v>
@@ -5348,7 +5378,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B193" t="s">
         <v>39</v>
@@ -5356,7 +5386,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B194" t="s">
         <v>39</v>
@@ -5364,7 +5394,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
@@ -5372,7 +5402,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B196" t="s">
         <v>39</v>
@@ -5380,7 +5410,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
         <v>39</v>
@@ -5388,7 +5418,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
         <v>39</v>
@@ -5396,7 +5426,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B199" t="s">
         <v>39</v>
@@ -5404,7 +5434,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
         <v>39</v>
@@ -5412,7 +5442,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
         <v>39</v>
@@ -5420,7 +5450,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B202" t="s">
         <v>39</v>
@@ -5428,7 +5458,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B203" t="s">
         <v>39</v>
@@ -5436,7 +5466,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B204" t="s">
         <v>39</v>
@@ -5444,7 +5474,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B205" t="s">
         <v>39</v>
@@ -5452,7 +5482,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B206" t="s">
         <v>39</v>
@@ -5460,7 +5490,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B207" t="s">
         <v>39</v>
@@ -5468,7 +5498,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B208" t="s">
         <v>39</v>
@@ -5476,7 +5506,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
         <v>39</v>
@@ -5484,7 +5514,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B210" t="s">
         <v>39</v>
@@ -5492,7 +5522,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
         <v>39</v>
@@ -5500,7 +5530,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
         <v>39</v>
@@ -5508,7 +5538,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B213" t="s">
         <v>39</v>
@@ -5516,7 +5546,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
         <v>39</v>
@@ -5524,7 +5554,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
         <v>39</v>
@@ -5532,7 +5562,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B216" t="s">
         <v>39</v>
@@ -5540,7 +5570,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B217" t="s">
         <v>39</v>
@@ -5548,7 +5578,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B218" t="s">
         <v>39</v>
@@ -5556,7 +5586,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
         <v>39</v>
@@ -5564,7 +5594,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B220" t="s">
         <v>39</v>
@@ -5572,7 +5602,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B221" t="s">
         <v>39</v>
@@ -5580,7 +5610,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B222" t="s">
         <v>39</v>
@@ -5588,7 +5618,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
         <v>39</v>
@@ -5596,7 +5626,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B224" t="s">
         <v>39</v>
@@ -5604,7 +5634,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B225" t="s">
         <v>39</v>
@@ -5612,7 +5642,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B226" t="s">
         <v>39</v>
@@ -5620,7 +5650,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B227" t="s">
         <v>39</v>
@@ -5628,7 +5658,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B228" t="s">
         <v>39</v>
@@ -5636,7 +5666,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B229" t="s">
         <v>39</v>
@@ -5644,7 +5674,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B230" t="s">
         <v>39</v>
@@ -5652,7 +5682,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B231" t="s">
         <v>39</v>
@@ -5660,7 +5690,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B232" t="s">
         <v>39</v>
@@ -5668,7 +5698,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B233" t="s">
         <v>39</v>
@@ -5676,7 +5706,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B234" t="s">
         <v>39</v>
@@ -5684,7 +5714,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B235" t="s">
         <v>39</v>
@@ -5692,7 +5722,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B236" t="s">
         <v>39</v>
@@ -5700,7 +5730,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B237" t="s">
         <v>39</v>
@@ -5708,7 +5738,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B238" t="s">
         <v>39</v>
@@ -5716,7 +5746,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B239" t="s">
         <v>39</v>
@@ -5724,7 +5754,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B240" t="s">
         <v>39</v>
@@ -5732,7 +5762,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B241" t="s">
         <v>39</v>
@@ -5740,7 +5770,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B242" t="s">
         <v>39</v>
@@ -5748,7 +5778,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B243" t="s">
         <v>39</v>
@@ -5756,7 +5786,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B244" t="s">
         <v>39</v>
@@ -5764,7 +5794,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B245" t="s">
         <v>39</v>
@@ -5772,7 +5802,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B246" t="s">
         <v>39</v>
@@ -5780,7 +5810,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B247" t="s">
         <v>39</v>
@@ -5788,7 +5818,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B248" t="s">
         <v>39</v>
@@ -5796,7 +5826,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B249" t="s">
         <v>39</v>
@@ -5804,7 +5834,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B250" t="s">
         <v>39</v>
@@ -5812,7 +5842,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B251" t="s">
         <v>39</v>
@@ -5820,7 +5850,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B252" t="s">
         <v>39</v>
@@ -5828,7 +5858,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B253" t="s">
         <v>39</v>
@@ -5836,7 +5866,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B254" t="s">
         <v>39</v>
@@ -5844,7 +5874,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B255" t="s">
         <v>39</v>
@@ -5852,7 +5882,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B256" t="s">
         <v>39</v>
@@ -5860,7 +5890,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B257" t="s">
         <v>39</v>
@@ -5868,7 +5898,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B258" t="s">
         <v>39</v>
@@ -5876,7 +5906,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B259" t="s">
         <v>39</v>
@@ -5884,7 +5914,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B260" t="s">
         <v>39</v>
@@ -5892,7 +5922,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
@@ -5900,7 +5930,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B262" t="s">
         <v>39</v>
@@ -5908,7 +5938,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B263" t="s">
         <v>39</v>
@@ -5916,7 +5946,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B264" t="s">
         <v>39</v>
@@ -5924,7 +5954,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B265" t="s">
         <v>39</v>
@@ -5932,7 +5962,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B266" t="s">
         <v>39</v>
@@ -5940,7 +5970,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B267" t="s">
         <v>39</v>
@@ -5948,7 +5978,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B268" t="s">
         <v>39</v>
@@ -5956,7 +5986,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B269" t="s">
         <v>39</v>
@@ -5964,7 +5994,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B270" t="s">
         <v>39</v>
@@ -5972,7 +6002,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B271" t="s">
         <v>39</v>
@@ -5980,7 +6010,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B272" t="s">
         <v>39</v>
@@ -5988,7 +6018,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B273" t="s">
         <v>39</v>
@@ -5996,7 +6026,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B274" t="s">
         <v>39</v>
@@ -6004,7 +6034,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B275" t="s">
         <v>39</v>
@@ -6012,125 +6042,83 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C276" t="s">
-        <v>468</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>483</v>
+        <v>303</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C277" t="s">
-        <v>474</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>488</v>
+        <v>304</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C278" t="s">
-        <v>489</v>
-      </c>
-      <c r="D278">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C279" t="s">
-        <v>449</v>
-      </c>
-      <c r="D279">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C280" t="s">
-        <v>474</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>510</v>
+        <v>307</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C281" t="s">
-        <v>506</v>
-      </c>
-      <c r="D281">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>511</v>
+        <v>308</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C282" t="s">
-        <v>467</v>
-      </c>
-      <c r="D282">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C283" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C284" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -6138,69 +6126,69 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C285" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C286" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C287" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>490</v>
+        <v>314</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C288" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D288">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C289" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -6208,13 +6196,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C290" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D290">
         <v>4</v>
@@ -6222,13 +6210,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C291" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -6236,13 +6224,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C292" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -6250,27 +6238,27 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C293" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C294" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -6278,13 +6266,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B295" t="s">
         <v>42</v>
       </c>
       <c r="C295" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -6292,13 +6280,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C296" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D296">
         <v>4</v>
@@ -6306,13 +6294,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C297" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -6320,13 +6308,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C298" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -6334,13 +6322,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C299" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -6348,13 +6336,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>326</v>
+        <v>505</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C300" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -6362,13 +6350,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C301" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -6376,15 +6364,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C302" t="s">
+        <v>448</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>42</v>
@@ -6392,27 +6386,21 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C304" t="s">
-        <v>474</v>
-      </c>
-      <c r="D304">
-        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C305" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D305">
         <v>6</v>
@@ -6420,13 +6408,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C306" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -6434,15 +6422,21 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C307" t="s">
+        <v>471</v>
+      </c>
+      <c r="D307">
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>42</v>
@@ -6450,29 +6444,29 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C309" t="s">
-        <v>468</v>
-      </c>
-      <c r="D309">
-        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B310" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C310" t="s">
+        <v>465</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B311" t="s">
         <v>39</v>
@@ -6480,7 +6474,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B312" t="s">
         <v>39</v>
@@ -6488,7 +6482,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B313" t="s">
         <v>39</v>
@@ -6496,7 +6490,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B314" t="s">
         <v>39</v>
@@ -6504,7 +6498,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B315" t="s">
         <v>39</v>
@@ -6512,7 +6506,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B316" t="s">
         <v>39</v>
@@ -6520,7 +6514,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B317" t="s">
         <v>39</v>
@@ -6528,7 +6522,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B318" t="s">
         <v>39</v>
@@ -6536,7 +6530,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B319" t="s">
         <v>39</v>
@@ -6544,7 +6538,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B320" t="s">
         <v>39</v>
@@ -6552,7 +6546,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B321" t="s">
         <v>39</v>
@@ -6560,7 +6554,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B322" t="s">
         <v>39</v>
@@ -6568,7 +6562,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B323" t="s">
         <v>39</v>
@@ -6576,7 +6570,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B324" t="s">
         <v>39</v>
@@ -6584,7 +6578,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B325" t="s">
         <v>39</v>
@@ -6592,7 +6586,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B326" t="s">
         <v>39</v>
@@ -6600,7 +6594,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B327" t="s">
         <v>39</v>
@@ -6608,7 +6602,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B328" t="s">
         <v>39</v>
@@ -6616,7 +6610,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B329" t="s">
         <v>39</v>
@@ -6624,7 +6618,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B330" t="s">
         <v>39</v>
@@ -6632,7 +6626,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B331" t="s">
         <v>39</v>
@@ -6640,7 +6634,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>355</v>
+        <v>513</v>
       </c>
       <c r="B332" t="s">
         <v>39</v>
@@ -6648,7 +6642,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B333" t="s">
         <v>39</v>
@@ -6656,7 +6650,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B334" t="s">
         <v>39</v>
@@ -6664,7 +6658,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B335" t="s">
         <v>39</v>
@@ -6672,7 +6666,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B336" t="s">
         <v>39</v>
@@ -6680,7 +6674,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B337" t="s">
         <v>39</v>
@@ -6688,7 +6682,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B338" t="s">
         <v>39</v>
@@ -6696,7 +6690,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B339" t="s">
         <v>39</v>
@@ -6704,7 +6698,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B340" t="s">
         <v>39</v>
@@ -6712,7 +6706,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B341" t="s">
         <v>39</v>
@@ -6720,7 +6714,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B342" t="s">
         <v>39</v>
@@ -6728,7 +6722,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B343" t="s">
         <v>39</v>
@@ -6736,7 +6730,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B344" t="s">
         <v>39</v>
@@ -6744,7 +6738,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B345" t="s">
         <v>39</v>
@@ -6752,7 +6746,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B346" t="s">
         <v>39</v>
@@ -6760,7 +6754,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B347" t="s">
         <v>39</v>
@@ -6768,7 +6762,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B348" t="s">
         <v>39</v>
@@ -6776,7 +6770,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B349" t="s">
         <v>39</v>
@@ -6784,7 +6778,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B350" t="s">
         <v>39</v>
@@ -6792,7 +6786,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B351" t="s">
         <v>39</v>
@@ -6800,7 +6794,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B352" t="s">
         <v>39</v>
@@ -6808,7 +6802,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B353" t="s">
         <v>39</v>
@@ -6816,7 +6810,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B354" t="s">
         <v>39</v>
@@ -6824,7 +6818,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B355" t="s">
         <v>39</v>
@@ -6832,7 +6826,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B356" t="s">
         <v>39</v>
@@ -6840,7 +6834,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B357" t="s">
         <v>39</v>
@@ -6848,7 +6842,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B358" t="s">
         <v>39</v>
@@ -6856,7 +6850,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B359" t="s">
         <v>39</v>
@@ -6864,7 +6858,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -6872,7 +6866,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B361" t="s">
         <v>39</v>
@@ -6880,7 +6874,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B362" t="s">
         <v>39</v>
@@ -6888,7 +6882,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -6896,7 +6890,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B364" t="s">
         <v>39</v>
@@ -6904,7 +6898,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B365" t="s">
         <v>39</v>
@@ -6912,7 +6906,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B366" t="s">
         <v>39</v>
@@ -6920,7 +6914,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B367" t="s">
         <v>39</v>
@@ -6928,7 +6922,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B368" t="s">
         <v>39</v>
@@ -6936,7 +6930,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B369" t="s">
         <v>39</v>
@@ -6944,7 +6938,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B370" t="s">
         <v>39</v>
@@ -6952,7 +6946,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B371" t="s">
         <v>39</v>
@@ -6960,7 +6954,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B372" t="s">
         <v>39</v>
@@ -6968,7 +6962,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B373" t="s">
         <v>39</v>
@@ -6976,7 +6970,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B374" t="s">
         <v>39</v>
@@ -6984,7 +6978,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B375" t="s">
         <v>39</v>
@@ -6992,7 +6986,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B376" t="s">
         <v>39</v>
@@ -7000,7 +6994,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B377" t="s">
         <v>39</v>
@@ -7008,7 +7002,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B378" t="s">
         <v>39</v>
@@ -7016,7 +7010,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B379" t="s">
         <v>39</v>
@@ -7024,7 +7018,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B380" t="s">
         <v>39</v>
@@ -7032,7 +7026,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B381" t="s">
         <v>39</v>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B382" t="s">
         <v>39</v>
@@ -7048,7 +7042,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B383" t="s">
         <v>39</v>
@@ -7056,7 +7050,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B384" t="s">
         <v>39</v>
@@ -7064,7 +7058,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B385" t="s">
         <v>39</v>
@@ -7072,7 +7066,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B386" t="s">
         <v>39</v>
@@ -7080,7 +7074,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B387" t="s">
         <v>39</v>
@@ -7088,7 +7082,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B388" t="s">
         <v>39</v>
@@ -7096,7 +7090,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B389" t="s">
         <v>39</v>
@@ -7104,7 +7098,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B390" t="s">
         <v>39</v>
@@ -7112,7 +7106,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B391" t="s">
         <v>39</v>
@@ -7120,7 +7114,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B392" t="s">
         <v>39</v>
@@ -7128,7 +7122,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B393" t="s">
         <v>39</v>
@@ -7136,7 +7130,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B394" t="s">
         <v>39</v>
@@ -7144,7 +7138,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B395" t="s">
         <v>39</v>
@@ -7152,7 +7146,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B396" t="s">
         <v>39</v>
@@ -7160,7 +7154,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B397" t="s">
         <v>39</v>
@@ -7168,7 +7162,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B398" t="s">
         <v>39</v>
@@ -7176,7 +7170,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B399" t="s">
         <v>39</v>
@@ -7184,13 +7178,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C400" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D400">
         <v>2</v>
@@ -7198,13 +7192,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C401" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -7212,13 +7206,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C402" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D402">
         <v>2</v>
@@ -7226,13 +7220,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C403" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -7240,13 +7234,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C404" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D404">
         <v>2</v>
@@ -7254,13 +7248,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C405" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -7268,41 +7262,41 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C406" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D406">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C407" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C408" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -7310,13 +7304,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C409" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D409">
         <v>6</v>
@@ -7324,13 +7318,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C410" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -7338,13 +7332,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C411" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -7352,13 +7346,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C412" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -7366,13 +7360,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C413" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -7380,35 +7374,35 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C414" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D414">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>512</v>
+        <v>430</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C415" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D415">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>42</v>
@@ -7419,7 +7413,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>42</v>
@@ -7430,13 +7424,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C418" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -7444,7 +7438,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>42</v>
@@ -7455,7 +7449,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>42</v>
@@ -7466,7 +7460,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>42</v>
@@ -7477,13 +7471,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C422" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D422">
         <v>6</v>
@@ -7491,13 +7485,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C423" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -7505,13 +7499,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C424" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D424">
         <v>12</v>
@@ -7519,13 +7513,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C425" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D425">
         <v>2</v>
@@ -7533,13 +7527,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C426" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D426">
         <v>2</v>
@@ -7547,13 +7541,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C427" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -7561,13 +7555,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C428" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -7575,13 +7569,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C429" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D429">
         <v>4</v>
@@ -7589,13 +7583,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C430" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D430">
         <v>1</v>

--- a/great_war_1916.xlsx
+++ b/great_war_1916.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="5940" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1363,12 +1363,6 @@
     <t>Germans</t>
   </si>
   <si>
-    <t>Imperial German Afrika</t>
-  </si>
-  <si>
-    <t>British Commonwealth</t>
-  </si>
-  <si>
     <t>Rhodesia</t>
   </si>
   <si>
@@ -1396,9 +1390,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>French Colonial Africa</t>
-  </si>
-  <si>
     <t>French West Africa</t>
   </si>
   <si>
@@ -1565,6 +1556,15 @@
   </si>
   <si>
     <t>German E. Afrika</t>
+  </si>
+  <si>
+    <t>British-Commonwealth</t>
+  </si>
+  <si>
+    <t>French-Colonial-Africa</t>
+  </si>
+  <si>
+    <t>Imperial-German-Afrika</t>
   </si>
 </sst>
 </file>
@@ -2907,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,7 +3063,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3077,7 +3077,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3091,7 +3091,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3119,7 +3119,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3133,7 +3133,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3161,7 +3161,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>42</v>
@@ -3189,7 +3189,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3245,7 +3245,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3259,7 +3259,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3273,7 +3273,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3393,7 +3393,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3421,7 +3421,7 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3435,7 +3435,7 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3449,7 +3449,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3463,7 +3463,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3505,7 +3505,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -3547,7 +3547,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3555,13 +3555,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -3600,7 +3600,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3628,7 +3628,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3670,7 +3670,7 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3684,7 +3684,7 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3712,7 +3712,7 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
@@ -3812,13 +3812,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3860,7 +3860,7 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3882,13 +3882,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3938,13 +3938,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3958,7 +3958,7 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -3972,7 +3972,7 @@
         <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3980,13 +3980,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>511</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
         <v>514</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" t="s">
-        <v>447</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4000,7 +4000,7 @@
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4042,7 +4042,7 @@
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>42</v>
@@ -4064,13 +4064,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -4106,7 +4106,7 @@
         <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4134,7 +4134,7 @@
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -4148,7 +4148,7 @@
         <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -4162,7 +4162,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4176,7 +4176,7 @@
         <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4204,7 +4204,7 @@
         <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4212,13 +4212,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -4226,13 +4226,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -4240,13 +4240,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4254,13 +4254,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4282,13 +4282,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -4302,7 +4302,7 @@
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4316,7 +4316,7 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4330,7 +4330,7 @@
         <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4344,7 +4344,7 @@
         <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D96">
         <v>10</v>
@@ -4358,7 +4358,7 @@
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -4400,7 +4400,7 @@
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -4422,13 +4422,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4442,7 +4442,7 @@
         <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>42</v>
@@ -4464,13 +4464,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -4498,7 +4498,7 @@
         <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -4512,7 +4512,7 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -4554,7 +4554,7 @@
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4568,7 +4568,7 @@
         <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -4576,13 +4576,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>42</v>
@@ -4652,7 +4652,7 @@
         <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4668,13 +4668,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -4730,7 +4730,7 @@
         <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D124">
         <v>12</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C127" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -4780,7 +4780,7 @@
         <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>42</v>
@@ -4822,7 +4822,7 @@
         <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -4836,7 +4836,7 @@
         <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C134" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B136" t="s">
         <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B137" t="s">
         <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4928,13 +4928,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B139" t="s">
         <v>42</v>
       </c>
       <c r="C139" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D139">
         <v>4</v>
@@ -4942,13 +4942,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B140" t="s">
         <v>42</v>
       </c>
       <c r="C140" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D140">
         <v>10</v>
@@ -4956,13 +4956,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B141" t="s">
         <v>42</v>
       </c>
       <c r="C141" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B187" t="s">
         <v>39</v>
@@ -6118,7 +6118,7 @@
         <v>42</v>
       </c>
       <c r="C284" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -6132,7 +6132,7 @@
         <v>42</v>
       </c>
       <c r="C285" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -6146,7 +6146,7 @@
         <v>42</v>
       </c>
       <c r="C286" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>42</v>
       </c>
       <c r="C287" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -6174,7 +6174,7 @@
         <v>42</v>
       </c>
       <c r="C288" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -6188,7 +6188,7 @@
         <v>42</v>
       </c>
       <c r="C289" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>42</v>
       </c>
       <c r="C291" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -6230,7 +6230,7 @@
         <v>42</v>
       </c>
       <c r="C292" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -6238,13 +6238,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C293" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -6258,7 +6258,7 @@
         <v>42</v>
       </c>
       <c r="C294" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -6272,7 +6272,7 @@
         <v>42</v>
       </c>
       <c r="C295" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -6300,7 +6300,7 @@
         <v>42</v>
       </c>
       <c r="C297" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -6314,7 +6314,7 @@
         <v>42</v>
       </c>
       <c r="C298" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -6328,7 +6328,7 @@
         <v>42</v>
       </c>
       <c r="C299" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -6336,13 +6336,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C300" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>42</v>
@@ -6370,7 +6370,7 @@
         <v>42</v>
       </c>
       <c r="C302" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -6394,13 +6394,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C305" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D305">
         <v>6</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>42</v>
@@ -6428,7 +6428,7 @@
         <v>42</v>
       </c>
       <c r="C307" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D307">
         <v>6</v>
@@ -6458,7 +6458,7 @@
         <v>42</v>
       </c>
       <c r="C310" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D310">
         <v>4</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B332" t="s">
         <v>39</v>
@@ -7184,7 +7184,7 @@
         <v>42</v>
       </c>
       <c r="C400" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D400">
         <v>2</v>
@@ -7198,7 +7198,7 @@
         <v>42</v>
       </c>
       <c r="C401" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -7206,13 +7206,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C402" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D402">
         <v>2</v>
@@ -7220,13 +7220,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C403" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -7240,7 +7240,7 @@
         <v>42</v>
       </c>
       <c r="C404" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D404">
         <v>2</v>
@@ -7254,7 +7254,7 @@
         <v>42</v>
       </c>
       <c r="C405" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -7268,7 +7268,7 @@
         <v>42</v>
       </c>
       <c r="C406" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D406">
         <v>2</v>
@@ -7276,13 +7276,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C407" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D407">
         <v>3</v>
@@ -7296,7 +7296,7 @@
         <v>42</v>
       </c>
       <c r="C408" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -7310,7 +7310,7 @@
         <v>42</v>
       </c>
       <c r="C409" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D409">
         <v>6</v>
@@ -7324,7 +7324,7 @@
         <v>42</v>
       </c>
       <c r="C410" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -7338,7 +7338,7 @@
         <v>42</v>
       </c>
       <c r="C411" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>42</v>
       </c>
       <c r="C412" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -7360,13 +7360,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C413" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -7374,13 +7374,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C414" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -7394,7 +7394,7 @@
         <v>42</v>
       </c>
       <c r="C415" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>42</v>
       </c>
       <c r="C418" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -7477,7 +7477,7 @@
         <v>42</v>
       </c>
       <c r="C422" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D422">
         <v>6</v>
@@ -7491,7 +7491,7 @@
         <v>42</v>
       </c>
       <c r="C423" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>42</v>
       </c>
       <c r="C424" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D424">
         <v>12</v>
@@ -7519,7 +7519,7 @@
         <v>42</v>
       </c>
       <c r="C425" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D425">
         <v>2</v>
@@ -7547,7 +7547,7 @@
         <v>42</v>
       </c>
       <c r="C427" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>42</v>
       </c>
       <c r="C428" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>42</v>
       </c>
       <c r="C429" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D429">
         <v>4</v>
@@ -7589,7 +7589,7 @@
         <v>42</v>
       </c>
       <c r="C430" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D430">
         <v>1</v>

--- a/great_war_1916.xlsx
+++ b/great_war_1916.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="7920" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="515">
   <si>
     <t>unit</t>
   </si>
@@ -2908,7 +2908,7 @@
   <dimension ref="A1:AF485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,6 +3328,12 @@
       <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">

--- a/great_war_1916.xlsx
+++ b/great_war_1916.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="13860" yWindow="0" windowWidth="26820" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="537">
   <si>
     <t>unit</t>
   </si>
@@ -1441,9 +1441,6 @@
     <t>Karkov</t>
   </si>
   <si>
-    <t>Novgorod</t>
-  </si>
-  <si>
     <t>Oryol</t>
   </si>
   <si>
@@ -1565,6 +1562,75 @@
   </si>
   <si>
     <t>Imperial-German-Afrika</t>
+  </si>
+  <si>
+    <t>BR 4</t>
+  </si>
+  <si>
+    <t>BR 5</t>
+  </si>
+  <si>
+    <t>BR 6</t>
+  </si>
+  <si>
+    <t>Gorkiy</t>
+  </si>
+  <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>Izhevsk</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>Penza</t>
+  </si>
+  <si>
+    <t>Petrozavodsk</t>
+  </si>
+  <si>
+    <t>RR 142</t>
+  </si>
+  <si>
+    <t>RR 143</t>
+  </si>
+  <si>
+    <t>RR 144</t>
+  </si>
+  <si>
+    <t>RR 145</t>
+  </si>
+  <si>
+    <t>RR 146</t>
+  </si>
+  <si>
+    <t>RR 147</t>
+  </si>
+  <si>
+    <t>RR 148</t>
+  </si>
+  <si>
+    <t>RR 149</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>SZ 35</t>
+  </si>
+  <si>
+    <t>SZ 38</t>
+  </si>
+  <si>
+    <t>Tambov</t>
+  </si>
+  <si>
+    <t>Vologda</t>
+  </si>
+  <si>
+    <t>Vyatka</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF430" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AF430"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF429" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AF429"/>
   <sortState ref="A6:AF422">
     <sortCondition ref="A1:A430"/>
   </sortState>
@@ -3717,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF485"/>
+  <dimension ref="A1:AF484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="F404" sqref="F404"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,13 +3963,13 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
@@ -3939,16 +4005,16 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -3981,16 +4047,16 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -4023,16 +4089,16 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -4065,16 +4131,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -4107,16 +4173,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -4149,13 +4215,13 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="D9" t="n">
         <v>2.0</v>
@@ -4191,13 +4257,13 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
@@ -4233,13 +4299,13 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
@@ -4275,16 +4341,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -4317,13 +4383,13 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D13" t="n">
         <v>1.0</v>
@@ -4359,16 +4425,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -4401,13 +4467,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D15" t="n">
         <v>4.0</v>
@@ -4443,16 +4509,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>507</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -4485,16 +4551,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>474</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -4527,16 +4593,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>486</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -4569,16 +4635,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -4611,16 +4677,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -4653,16 +4719,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="D21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -4695,16 +4761,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="D22" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -4737,16 +4803,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -4779,13 +4845,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>475</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="D24" t="n">
         <v>3.0</v>
@@ -4821,17 +4887,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D25" t="n">
-        <v>16.0</v>
-      </c>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -4863,17 +4925,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.0</v>
-      </c>
+      <c r="C26"/>
+      <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -4905,17 +4963,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>516</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
-        <v>507</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="C27"/>
+      <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -4947,16 +5001,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -4989,16 +5043,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D29" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -5031,16 +5085,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="D30" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -5073,16 +5127,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D31" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -5115,16 +5169,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D32" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -5157,16 +5211,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>470</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="D33" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -5199,16 +5253,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -5241,13 +5295,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
@@ -5283,16 +5337,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="D36" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -5325,16 +5379,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="D37" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -5367,13 +5421,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
@@ -5409,16 +5463,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>453</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D39" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -5451,16 +5505,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -5493,16 +5547,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D41" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -5535,16 +5589,14 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>513</v>
-      </c>
+      <c r="C42"/>
       <c r="D42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -5577,16 +5629,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -5619,13 +5671,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
@@ -5661,13 +5713,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D45" t="n">
         <v>3.0</v>
@@ -5703,13 +5755,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -5745,16 +5797,16 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="D47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -5787,16 +5839,16 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
@@ -5829,16 +5881,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="D49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -5871,17 +5923,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>517</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C50" t="s">
-        <v>499</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="C50"/>
+      <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
@@ -5913,16 +5961,16 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
@@ -5955,16 +6003,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -5997,16 +6045,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>488</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -6039,16 +6087,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>463</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -6081,16 +6129,14 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" t="s">
-        <v>462</v>
-      </c>
+      <c r="C55"/>
       <c r="D55" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
@@ -6123,14 +6169,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>484</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C56"/>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
       <c r="D56" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
@@ -6163,16 +6211,16 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>493</v>
+        <v>130</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D57" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
@@ -6205,16 +6253,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>454</v>
+        <v>132</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="D58" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
@@ -6247,16 +6295,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -6289,16 +6337,16 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D60" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -6331,17 +6379,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>518</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C61" t="s">
-        <v>499</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="C61"/>
+      <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
@@ -6373,17 +6417,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>519</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C62" t="s">
-        <v>446</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="C62"/>
+      <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
@@ -6415,13 +6455,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="D63" t="n">
         <v>2.0</v>
@@ -6457,16 +6497,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
@@ -6499,13 +6539,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>479</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
@@ -6541,16 +6581,16 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>472</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
@@ -6583,17 +6623,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C67" t="s">
-        <v>513</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="C67"/>
+      <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
@@ -6625,16 +6661,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -6667,16 +6703,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>475</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -6709,16 +6745,16 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>511</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="D70" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -6751,16 +6787,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
@@ -6793,16 +6829,16 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D72" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
@@ -6835,16 +6871,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D73" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
@@ -6877,16 +6913,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>497</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="D74" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
@@ -6919,16 +6955,16 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>489</v>
+        <v>144</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="D75" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
@@ -6961,7 +6997,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>463</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>42</v>
@@ -6970,7 +7006,7 @@
         <v>462</v>
       </c>
       <c r="D76" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -7003,14 +7039,16 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>491</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C77"/>
+      <c r="C77" t="s">
+        <v>446</v>
+      </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -7043,16 +7081,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D78" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -7085,16 +7123,16 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -7127,16 +7165,16 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D80" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
@@ -7169,16 +7207,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D81" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
@@ -7211,16 +7249,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D82" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
@@ -7253,16 +7291,16 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="D83" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
@@ -7295,16 +7333,16 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="D84" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
@@ -7337,13 +7375,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
@@ -7379,16 +7417,14 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C86" t="s">
-        <v>462</v>
-      </c>
+      <c r="C86"/>
       <c r="D86" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
@@ -7421,7 +7457,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>464</v>
+        <v>158</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>42</v>
@@ -7430,7 +7466,7 @@
         <v>462</v>
       </c>
       <c r="D87" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
@@ -7463,16 +7499,16 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
@@ -7505,16 +7541,16 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>480</v>
+        <v>159</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D89" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
@@ -7547,16 +7583,16 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>472</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D90" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
@@ -7589,17 +7625,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>521</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C91" t="s">
-        <v>446</v>
-      </c>
-      <c r="D91" t="n">
-        <v>6.0</v>
-      </c>
+      <c r="C91"/>
+      <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
@@ -7631,16 +7663,14 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>476</v>
+        <v>161</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C92" t="s">
-        <v>468</v>
-      </c>
+      <c r="C92"/>
       <c r="D92" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -7673,17 +7703,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>522</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C93" t="s">
-        <v>462</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="C93"/>
+      <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
@@ -7715,16 +7741,16 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
@@ -7757,16 +7783,16 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -7799,16 +7825,16 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D96" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
@@ -7841,16 +7867,16 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="D97" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
@@ -7883,16 +7909,16 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
@@ -7925,16 +7951,16 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>498</v>
+        <v>166</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D99" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -7967,13 +7993,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>502</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D100" t="n">
         <v>1.0</v>
@@ -8009,16 +8035,16 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="D101" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -8051,16 +8077,16 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="D102" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -8093,7 +8119,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>42</v>
@@ -8102,7 +8128,7 @@
         <v>462</v>
       </c>
       <c r="D103" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
@@ -8135,16 +8161,16 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
@@ -8177,16 +8203,16 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D105" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
@@ -8219,16 +8245,16 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="D106" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
@@ -8261,16 +8287,14 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C107"/>
       <c r="D107" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
@@ -8303,16 +8327,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" t="s">
-        <v>462</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C108"/>
       <c r="D108" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -8345,16 +8367,14 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C109"/>
       <c r="D109" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
@@ -8387,16 +8407,14 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110" t="s">
-        <v>514</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C110"/>
       <c r="D110" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
@@ -8429,16 +8447,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C111" t="s">
-        <v>499</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C111"/>
       <c r="D111" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E111"/>
       <c r="F111"/>
@@ -8471,16 +8487,14 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" t="s">
-        <v>461</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C112"/>
       <c r="D112" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
@@ -8513,16 +8527,14 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C113"/>
       <c r="D113" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E113"/>
       <c r="F113"/>
@@ -8555,16 +8567,14 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C114" t="s">
-        <v>513</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C114"/>
       <c r="D114" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E114"/>
       <c r="F114"/>
@@ -8597,16 +8607,14 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C115" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C115"/>
       <c r="D115" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E115"/>
       <c r="F115"/>
@@ -8639,16 +8647,14 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C116" t="s">
-        <v>499</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C116"/>
       <c r="D116" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -8681,16 +8687,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>490</v>
+        <v>179</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C117"/>
       <c r="D117" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E117"/>
       <c r="F117"/>
@@ -8723,16 +8727,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C118"/>
       <c r="D118" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E118"/>
       <c r="F118"/>
@@ -8765,10 +8767,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C119"/>
       <c r="D119" t="n">
@@ -8805,16 +8807,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>473</v>
+        <v>182</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C120"/>
       <c r="D120" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E120"/>
       <c r="F120"/>
@@ -8847,16 +8847,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C121" t="s">
-        <v>513</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C121"/>
       <c r="D121" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E121"/>
       <c r="F121"/>
@@ -8889,16 +8887,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" t="s">
-        <v>462</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C122"/>
       <c r="D122" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E122"/>
       <c r="F122"/>
@@ -8931,16 +8927,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C123"/>
       <c r="D123" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E123"/>
       <c r="F123"/>
@@ -8973,16 +8967,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124" t="s">
-        <v>499</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C124"/>
       <c r="D124" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
@@ -9015,16 +9007,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C125" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C125"/>
       <c r="D125" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E125"/>
       <c r="F125"/>
@@ -9057,10 +9047,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C126"/>
       <c r="D126" t="n">
@@ -9097,16 +9087,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>501</v>
+        <v>189</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" t="s">
-        <v>499</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C127"/>
       <c r="D127" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E127"/>
       <c r="F127"/>
@@ -9139,16 +9127,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" t="s">
-        <v>461</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C128"/>
       <c r="D128" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E128"/>
       <c r="F128"/>
@@ -9181,16 +9167,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C129" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C129"/>
       <c r="D129" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E129"/>
       <c r="F129"/>
@@ -9223,16 +9207,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>488</v>
+        <v>192</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C130" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C130"/>
       <c r="D130" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E130"/>
       <c r="F130"/>
@@ -9265,16 +9247,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C131" t="s">
-        <v>496</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C131"/>
       <c r="D131" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E131"/>
       <c r="F131"/>
@@ -9307,16 +9287,14 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C132" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C132"/>
       <c r="D132" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E132"/>
       <c r="F132"/>
@@ -9349,16 +9327,14 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C133"/>
       <c r="D133" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E133"/>
       <c r="F133"/>
@@ -9391,16 +9367,14 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>503</v>
+        <v>196</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" t="s">
-        <v>499</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C134"/>
       <c r="D134" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E134"/>
       <c r="F134"/>
@@ -9433,16 +9407,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" t="s">
-        <v>446</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135"/>
       <c r="D135" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E135"/>
       <c r="F135"/>
@@ -9475,16 +9447,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>447</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C136"/>
       <c r="D136" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E136"/>
       <c r="F136"/>
@@ -9517,16 +9487,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>477</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C137"/>
       <c r="D137" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E137"/>
       <c r="F137"/>
@@ -9559,16 +9527,14 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" t="s">
-        <v>462</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C138"/>
       <c r="D138" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E138"/>
       <c r="F138"/>
@@ -9601,16 +9567,14 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>482</v>
+        <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" t="s">
-        <v>483</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C139"/>
       <c r="D139" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E139"/>
       <c r="F139"/>
@@ -9643,16 +9607,14 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>504</v>
+        <v>202</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" t="s">
-        <v>461</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C140"/>
       <c r="D140" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E140"/>
       <c r="F140"/>
@@ -9685,16 +9647,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>469</v>
+        <v>203</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C141"/>
       <c r="D141" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E141"/>
       <c r="F141"/>
@@ -9727,7 +9687,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="B142" t="s">
         <v>39</v>
@@ -9767,7 +9727,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B143" t="s">
         <v>39</v>
@@ -9807,7 +9767,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
@@ -9847,7 +9807,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
@@ -9887,7 +9847,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -9927,7 +9887,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
@@ -9967,7 +9927,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
@@ -10007,7 +9967,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
@@ -10047,7 +10007,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
@@ -10087,7 +10047,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
@@ -10127,7 +10087,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>508</v>
       </c>
       <c r="B152" t="s">
         <v>39</v>
@@ -10167,7 +10127,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B153" t="s">
         <v>39</v>
@@ -10207,7 +10167,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
         <v>39</v>
@@ -10247,15 +10207,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>523</v>
       </c>
       <c r="B155" t="s">
         <v>39</v>
       </c>
       <c r="C155"/>
-      <c r="D155" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D155"/>
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155"/>
@@ -10287,15 +10245,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>524</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
       </c>
       <c r="C156"/>
-      <c r="D156" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D156"/>
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156"/>
@@ -10327,15 +10283,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>525</v>
       </c>
       <c r="B157" t="s">
         <v>39</v>
       </c>
       <c r="C157"/>
-      <c r="D157" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D157"/>
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157"/>
@@ -10367,15 +10321,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>526</v>
       </c>
       <c r="B158" t="s">
         <v>39</v>
       </c>
       <c r="C158"/>
-      <c r="D158" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D158"/>
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158"/>
@@ -10407,15 +10359,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>527</v>
       </c>
       <c r="B159" t="s">
         <v>39</v>
       </c>
       <c r="C159"/>
-      <c r="D159" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D159"/>
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159"/>
@@ -10447,15 +10397,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>528</v>
       </c>
       <c r="B160" t="s">
         <v>39</v>
       </c>
       <c r="C160"/>
-      <c r="D160" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D160"/>
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160"/>
@@ -10487,15 +10435,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>529</v>
       </c>
       <c r="B161" t="s">
         <v>39</v>
       </c>
       <c r="C161"/>
-      <c r="D161" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D161"/>
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161"/>
@@ -10527,15 +10473,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>530</v>
       </c>
       <c r="B162" t="s">
         <v>39</v>
       </c>
       <c r="C162"/>
-      <c r="D162" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D162"/>
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162"/>
@@ -10567,7 +10511,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B163" t="s">
         <v>39</v>
@@ -10607,7 +10551,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B164" t="s">
         <v>39</v>
@@ -10647,7 +10591,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B165" t="s">
         <v>39</v>
@@ -10687,7 +10631,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B166" t="s">
         <v>39</v>
@@ -10727,7 +10671,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B167" t="s">
         <v>39</v>
@@ -10767,7 +10711,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B168" t="s">
         <v>39</v>
@@ -10807,7 +10751,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
@@ -10847,7 +10791,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B170" t="s">
         <v>39</v>
@@ -10887,7 +10831,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B171" t="s">
         <v>39</v>
@@ -10927,7 +10871,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
         <v>39</v>
@@ -10967,7 +10911,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
         <v>39</v>
@@ -11007,7 +10951,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>39</v>
@@ -11047,7 +10991,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
         <v>39</v>
@@ -11087,7 +11031,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B176" t="s">
         <v>39</v>
@@ -11127,7 +11071,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
         <v>39</v>
@@ -11167,7 +11111,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B178" t="s">
         <v>39</v>
@@ -11207,7 +11151,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B179" t="s">
         <v>39</v>
@@ -11247,7 +11191,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
@@ -11287,7 +11231,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B181" t="s">
         <v>39</v>
@@ -11327,7 +11271,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B182" t="s">
         <v>39</v>
@@ -11367,7 +11311,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B183" t="s">
         <v>39</v>
@@ -11407,7 +11351,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
@@ -11447,7 +11391,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B185" t="s">
         <v>39</v>
@@ -11487,7 +11431,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="B186" t="s">
         <v>39</v>
@@ -11527,7 +11471,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>509</v>
+        <v>240</v>
       </c>
       <c r="B187" t="s">
         <v>39</v>
@@ -11567,7 +11511,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B188" t="s">
         <v>39</v>
@@ -11607,7 +11551,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B189" t="s">
         <v>39</v>
@@ -11647,7 +11591,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="B190" t="s">
         <v>39</v>
@@ -11687,7 +11631,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B191" t="s">
         <v>39</v>
@@ -11727,7 +11671,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
         <v>39</v>
@@ -11767,7 +11711,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B193" t="s">
         <v>39</v>
@@ -11807,7 +11751,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B194" t="s">
         <v>39</v>
@@ -11847,7 +11791,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
@@ -11887,7 +11831,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="B196" t="s">
         <v>39</v>
@@ -11927,7 +11871,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B197" t="s">
         <v>39</v>
@@ -11967,7 +11911,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="B198" t="s">
         <v>39</v>
@@ -12007,7 +11951,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B199" t="s">
         <v>39</v>
@@ -12047,7 +11991,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B200" t="s">
         <v>39</v>
@@ -12087,7 +12031,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B201" t="s">
         <v>39</v>
@@ -12127,7 +12071,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
         <v>39</v>
@@ -12167,7 +12111,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
         <v>39</v>
@@ -12207,7 +12151,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
         <v>39</v>
@@ -12247,7 +12191,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
         <v>39</v>
@@ -12287,7 +12231,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B206" t="s">
         <v>39</v>
@@ -12327,7 +12271,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
         <v>39</v>
@@ -12367,7 +12311,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="B208" t="s">
         <v>39</v>
@@ -12407,7 +12351,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B209" t="s">
         <v>39</v>
@@ -12447,7 +12391,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B210" t="s">
         <v>39</v>
@@ -12487,7 +12431,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B211" t="s">
         <v>39</v>
@@ -12527,7 +12471,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="B212" t="s">
         <v>39</v>
@@ -12567,7 +12511,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B213" t="s">
         <v>39</v>
@@ -12607,7 +12551,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B214" t="s">
         <v>39</v>
@@ -12647,7 +12591,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B215" t="s">
         <v>39</v>
@@ -12687,7 +12631,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B216" t="s">
         <v>39</v>
@@ -12727,7 +12671,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="B217" t="s">
         <v>39</v>
@@ -12767,7 +12711,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B218" t="s">
         <v>39</v>
@@ -12807,7 +12751,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="B219" t="s">
         <v>39</v>
@@ -12847,7 +12791,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B220" t="s">
         <v>39</v>
@@ -12887,7 +12831,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B221" t="s">
         <v>39</v>
@@ -12927,7 +12871,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B222" t="s">
         <v>39</v>
@@ -12967,7 +12911,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="B223" t="s">
         <v>39</v>
@@ -13007,7 +12951,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B224" t="s">
         <v>39</v>
@@ -13047,7 +12991,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="B225" t="s">
         <v>39</v>
@@ -13087,7 +13031,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B226" t="s">
         <v>39</v>
@@ -13127,7 +13071,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B227" t="s">
         <v>39</v>
@@ -13167,7 +13111,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B228" t="s">
         <v>39</v>
@@ -13207,7 +13151,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="B229" t="s">
         <v>39</v>
@@ -13247,7 +13191,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="B230" t="s">
         <v>39</v>
@@ -13287,7 +13231,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B231" t="s">
         <v>39</v>
@@ -13327,7 +13271,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="B232" t="s">
         <v>39</v>
@@ -13367,7 +13311,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="B233" t="s">
         <v>39</v>
@@ -13407,7 +13351,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="B234" t="s">
         <v>39</v>
@@ -13447,7 +13391,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="B235" t="s">
         <v>39</v>
@@ -13487,7 +13431,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="B236" t="s">
         <v>39</v>
@@ -13527,7 +13471,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B237" t="s">
         <v>39</v>
@@ -13567,7 +13511,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="B238" t="s">
         <v>39</v>
@@ -13607,7 +13551,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="B239" t="s">
         <v>39</v>
@@ -13647,7 +13591,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="B240" t="s">
         <v>39</v>
@@ -13687,7 +13631,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="B241" t="s">
         <v>39</v>
@@ -13727,7 +13671,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B242" t="s">
         <v>39</v>
@@ -13767,7 +13711,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="B243" t="s">
         <v>39</v>
@@ -13807,7 +13751,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B244" t="s">
         <v>39</v>
@@ -13847,7 +13791,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B245" t="s">
         <v>39</v>
@@ -13887,7 +13831,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B246" t="s">
         <v>39</v>
@@ -13927,7 +13871,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="B247" t="s">
         <v>39</v>
@@ -13967,7 +13911,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="B248" t="s">
         <v>39</v>
@@ -14007,7 +13951,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B249" t="s">
         <v>39</v>
@@ -14047,7 +13991,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="B250" t="s">
         <v>39</v>
@@ -14087,7 +14031,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="B251" t="s">
         <v>39</v>
@@ -14127,7 +14071,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="B252" t="s">
         <v>39</v>
@@ -14167,7 +14111,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="B253" t="s">
         <v>39</v>
@@ -14207,7 +14151,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="B254" t="s">
         <v>39</v>
@@ -14247,7 +14191,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="B255" t="s">
         <v>39</v>
@@ -14287,14 +14231,16 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="B256" t="s">
-        <v>39</v>
-      </c>
-      <c r="C256"/>
+        <v>42</v>
+      </c>
+      <c r="C256" t="s">
+        <v>446</v>
+      </c>
       <c r="D256" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E256"/>
       <c r="F256"/>
@@ -14327,14 +14273,16 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B257" t="s">
-        <v>39</v>
-      </c>
-      <c r="C257"/>
+        <v>42</v>
+      </c>
+      <c r="C257" t="s">
+        <v>506</v>
+      </c>
       <c r="D257" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E257"/>
       <c r="F257"/>
@@ -14367,15 +14315,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>531</v>
       </c>
       <c r="B258" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C258"/>
-      <c r="D258" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D258"/>
       <c r="E258"/>
       <c r="F258"/>
       <c r="G258"/>
@@ -14407,14 +14353,16 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B259" t="s">
-        <v>39</v>
-      </c>
-      <c r="C259"/>
+        <v>42</v>
+      </c>
+      <c r="C259" t="s">
+        <v>482</v>
+      </c>
       <c r="D259" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E259"/>
       <c r="F259"/>
@@ -14447,14 +14395,16 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B260" t="s">
-        <v>39</v>
-      </c>
-      <c r="C260"/>
+        <v>42</v>
+      </c>
+      <c r="C260" t="s">
+        <v>468</v>
+      </c>
       <c r="D260" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E260"/>
       <c r="F260"/>
@@ -14487,14 +14437,16 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B261" t="s">
-        <v>39</v>
-      </c>
-      <c r="C261"/>
+        <v>42</v>
+      </c>
+      <c r="C261" t="s">
+        <v>461</v>
+      </c>
       <c r="D261" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E261"/>
       <c r="F261"/>
@@ -14527,14 +14479,16 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B262" t="s">
-        <v>39</v>
-      </c>
-      <c r="C262"/>
+        <v>42</v>
+      </c>
+      <c r="C262" t="s">
+        <v>446</v>
+      </c>
       <c r="D262" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E262"/>
       <c r="F262"/>
@@ -14567,14 +14521,16 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B263" t="s">
-        <v>39</v>
-      </c>
-      <c r="C263"/>
+        <v>42</v>
+      </c>
+      <c r="C263" t="s">
+        <v>495</v>
+      </c>
       <c r="D263" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E263"/>
       <c r="F263"/>
@@ -14607,14 +14563,16 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="B264" t="s">
-        <v>39</v>
-      </c>
-      <c r="C264"/>
+        <v>42</v>
+      </c>
+      <c r="C264" t="s">
+        <v>482</v>
+      </c>
       <c r="D264" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E264"/>
       <c r="F264"/>
@@ -14647,14 +14605,16 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B265" t="s">
-        <v>39</v>
-      </c>
-      <c r="C265"/>
+        <v>42</v>
+      </c>
+      <c r="C265" t="s">
+        <v>461</v>
+      </c>
       <c r="D265" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E265"/>
       <c r="F265"/>
@@ -14687,14 +14647,16 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="B266" t="s">
-        <v>39</v>
-      </c>
-      <c r="C266"/>
+        <v>42</v>
+      </c>
+      <c r="C266" t="s">
+        <v>446</v>
+      </c>
       <c r="D266" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E266"/>
       <c r="F266"/>
@@ -14727,14 +14689,16 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B267" t="s">
-        <v>39</v>
-      </c>
-      <c r="C267"/>
+        <v>42</v>
+      </c>
+      <c r="C267" t="s">
+        <v>461</v>
+      </c>
       <c r="D267" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E267"/>
       <c r="F267"/>
@@ -14767,14 +14731,16 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="B268" t="s">
-        <v>39</v>
-      </c>
-      <c r="C268"/>
+        <v>42</v>
+      </c>
+      <c r="C268" t="s">
+        <v>468</v>
+      </c>
       <c r="D268" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E268"/>
       <c r="F268"/>
@@ -14807,14 +14773,16 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="B269" t="s">
-        <v>39</v>
-      </c>
-      <c r="C269"/>
+        <v>42</v>
+      </c>
+      <c r="C269" t="s">
+        <v>462</v>
+      </c>
       <c r="D269" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E269"/>
       <c r="F269"/>
@@ -14847,14 +14815,16 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="B270" t="s">
-        <v>39</v>
-      </c>
-      <c r="C270"/>
+        <v>42</v>
+      </c>
+      <c r="C270" t="s">
+        <v>498</v>
+      </c>
       <c r="D270" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E270"/>
       <c r="F270"/>
@@ -14887,14 +14857,16 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>297</v>
+        <v>494</v>
       </c>
       <c r="B271" t="s">
-        <v>39</v>
-      </c>
-      <c r="C271"/>
+        <v>42</v>
+      </c>
+      <c r="C271" t="s">
+        <v>446</v>
+      </c>
       <c r="D271" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E271"/>
       <c r="F271"/>
@@ -14927,10 +14899,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="B272" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C272"/>
       <c r="D272" t="n">
@@ -14967,10 +14939,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B273" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C273"/>
       <c r="D273" t="n">
@@ -15007,14 +14979,16 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B274" t="s">
-        <v>39</v>
-      </c>
-      <c r="C274"/>
+        <v>42</v>
+      </c>
+      <c r="C274" t="s">
+        <v>468</v>
+      </c>
       <c r="D274" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E274"/>
       <c r="F274"/>
@@ -15047,14 +15021,16 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>301</v>
-      </c>
-      <c r="B275" t="s">
-        <v>39</v>
-      </c>
-      <c r="C275"/>
+        <v>490</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C275" t="s">
+        <v>446</v>
+      </c>
       <c r="D275" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E275"/>
       <c r="F275"/>
@@ -15087,14 +15063,16 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C276"/>
+        <v>42</v>
+      </c>
+      <c r="C276" t="s">
+        <v>468</v>
+      </c>
       <c r="D276" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E276"/>
       <c r="F276"/>
@@ -15127,10 +15105,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C277"/>
       <c r="D277" t="n">
@@ -15167,10 +15145,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C278"/>
       <c r="D278" t="n">
@@ -15207,14 +15185,16 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C279"/>
+        <v>42</v>
+      </c>
+      <c r="C279" t="s">
+        <v>462</v>
+      </c>
       <c r="D279" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E279"/>
       <c r="F279"/>
@@ -15247,7 +15227,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>39</v>
@@ -15287,7 +15267,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>39</v>
@@ -15327,7 +15307,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>39</v>
@@ -15367,16 +15347,14 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C283" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C283"/>
       <c r="D283" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E283"/>
       <c r="F283"/>
@@ -15409,16 +15387,14 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C284" t="s">
-        <v>507</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C284"/>
       <c r="D284" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E284"/>
       <c r="F284"/>
@@ -15451,16 +15427,14 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C285" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C285"/>
       <c r="D285" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E285"/>
       <c r="F285"/>
@@ -15493,16 +15467,14 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C286" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C286"/>
       <c r="D286" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E286"/>
       <c r="F286"/>
@@ -15535,16 +15507,14 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C287" t="s">
-        <v>483</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C287"/>
       <c r="D287" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E287"/>
       <c r="F287"/>
@@ -15577,16 +15547,14 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C288" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C288"/>
       <c r="D288" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E288"/>
       <c r="F288"/>
@@ -15619,16 +15587,14 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C289" t="s">
-        <v>461</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C289"/>
       <c r="D289" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E289"/>
       <c r="F289"/>
@@ -15661,16 +15627,14 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C290" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C290"/>
       <c r="D290" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E290"/>
       <c r="F290"/>
@@ -15703,16 +15667,14 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C291" t="s">
-        <v>496</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C291"/>
       <c r="D291" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E291"/>
       <c r="F291"/>
@@ -15745,16 +15707,14 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C292" t="s">
-        <v>513</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C292"/>
       <c r="D292" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E292"/>
       <c r="F292"/>
@@ -15787,16 +15747,14 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>484</v>
+        <v>345</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C293" t="s">
-        <v>483</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C293"/>
       <c r="D293" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E293"/>
       <c r="F293"/>
@@ -15829,16 +15787,14 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>319</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C294" t="s">
-        <v>461</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B294" t="s">
+        <v>39</v>
+      </c>
+      <c r="C294"/>
       <c r="D294" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E294"/>
       <c r="F294"/>
@@ -15871,16 +15827,14 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>320</v>
-      </c>
-      <c r="B295" t="s">
-        <v>42</v>
-      </c>
-      <c r="C295" t="s">
-        <v>512</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C295"/>
       <c r="D295" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E295"/>
       <c r="F295"/>
@@ -15913,16 +15867,14 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C296" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C296"/>
       <c r="D296" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E296"/>
       <c r="F296"/>
@@ -15955,16 +15907,14 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C297" t="s">
-        <v>461</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C297"/>
       <c r="D297" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E297"/>
       <c r="F297"/>
@@ -15997,16 +15947,14 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C298" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C298"/>
       <c r="D298" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E298"/>
       <c r="F298"/>
@@ -16039,16 +15987,14 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C299" t="s">
-        <v>462</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C299"/>
       <c r="D299" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E299"/>
       <c r="F299"/>
@@ -16081,16 +16027,14 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>502</v>
+        <v>352</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C300" t="s">
-        <v>499</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C300"/>
       <c r="D300" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E300"/>
       <c r="F300"/>
@@ -16123,16 +16067,14 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C301" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C301"/>
       <c r="D301" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E301"/>
       <c r="F301"/>
@@ -16165,16 +16107,14 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C302" t="s">
-        <v>512</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C302"/>
       <c r="D302" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E302"/>
       <c r="F302"/>
@@ -16207,10 +16147,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C303"/>
       <c r="D303" t="n">
@@ -16247,10 +16187,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C304"/>
       <c r="D304" t="n">
@@ -16287,16 +16227,14 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>481</v>
+        <v>356</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C305" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C305"/>
       <c r="D305" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E305"/>
       <c r="F305"/>
@@ -16329,16 +16267,14 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>491</v>
+        <v>357</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C306" t="s">
-        <v>446</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C306"/>
       <c r="D306" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E306"/>
       <c r="F306"/>
@@ -16371,16 +16307,14 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C307" t="s">
-        <v>468</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C307"/>
       <c r="D307" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E307"/>
       <c r="F307"/>
@@ -16413,15 +16347,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>532</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C308"/>
-      <c r="D308" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D308"/>
       <c r="E308"/>
       <c r="F308"/>
       <c r="G308"/>
@@ -16453,10 +16385,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>330</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>42</v>
+        <v>359</v>
+      </c>
+      <c r="B309" t="s">
+        <v>39</v>
       </c>
       <c r="C309"/>
       <c r="D309" t="n">
@@ -16493,16 +16425,14 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B310" t="s">
-        <v>42</v>
-      </c>
-      <c r="C310" t="s">
-        <v>462</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C310"/>
       <c r="D310" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E310"/>
       <c r="F310"/>
@@ -16535,15 +16465,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>533</v>
       </c>
       <c r="B311" t="s">
         <v>39</v>
       </c>
       <c r="C311"/>
-      <c r="D311" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D311"/>
       <c r="E311"/>
       <c r="F311"/>
       <c r="G311"/>
@@ -16575,7 +16503,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="B312" t="s">
         <v>39</v>
@@ -16615,7 +16543,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B313" t="s">
         <v>39</v>
@@ -16655,7 +16583,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="B314" t="s">
         <v>39</v>
@@ -16695,7 +16623,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B315" t="s">
         <v>39</v>
@@ -16735,7 +16663,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="B316" t="s">
         <v>39</v>
@@ -16775,7 +16703,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="B317" t="s">
         <v>39</v>
@@ -16815,7 +16743,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B318" t="s">
         <v>39</v>
@@ -16855,7 +16783,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="B319" t="s">
         <v>39</v>
@@ -16895,7 +16823,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="B320" t="s">
         <v>39</v>
@@ -16935,7 +16863,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B321" t="s">
         <v>39</v>
@@ -16975,7 +16903,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="B322" t="s">
         <v>39</v>
@@ -17015,7 +16943,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B323" t="s">
         <v>39</v>
@@ -17055,7 +16983,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="B324" t="s">
         <v>39</v>
@@ -17095,7 +17023,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B325" t="s">
         <v>39</v>
@@ -17135,7 +17063,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="B326" t="s">
         <v>39</v>
@@ -17175,7 +17103,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B327" t="s">
         <v>39</v>
@@ -17215,7 +17143,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="B328" t="s">
         <v>39</v>
@@ -17255,7 +17183,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="B329" t="s">
         <v>39</v>
@@ -17295,7 +17223,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="B330" t="s">
         <v>39</v>
@@ -17335,7 +17263,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="B331" t="s">
         <v>39</v>
@@ -17375,7 +17303,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>510</v>
+        <v>381</v>
       </c>
       <c r="B332" t="s">
         <v>39</v>
@@ -17415,7 +17343,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="B333" t="s">
         <v>39</v>
@@ -17455,7 +17383,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="B334" t="s">
         <v>39</v>
@@ -17495,7 +17423,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="B335" t="s">
         <v>39</v>
@@ -17535,7 +17463,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B336" t="s">
         <v>39</v>
@@ -17575,7 +17503,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B337" t="s">
         <v>39</v>
@@ -17615,7 +17543,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="B338" t="s">
         <v>39</v>
@@ -17655,7 +17583,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="B339" t="s">
         <v>39</v>
@@ -17695,7 +17623,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B340" t="s">
         <v>39</v>
@@ -17735,7 +17663,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B341" t="s">
         <v>39</v>
@@ -17775,7 +17703,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B342" t="s">
         <v>39</v>
@@ -17815,7 +17743,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B343" t="s">
         <v>39</v>
@@ -17855,7 +17783,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="B344" t="s">
         <v>39</v>
@@ -17895,7 +17823,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="B345" t="s">
         <v>39</v>
@@ -17935,7 +17863,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B346" t="s">
         <v>39</v>
@@ -17975,7 +17903,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B347" t="s">
         <v>39</v>
@@ -18015,7 +17943,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B348" t="s">
         <v>39</v>
@@ -18055,7 +17983,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="B349" t="s">
         <v>39</v>
@@ -18095,7 +18023,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="B350" t="s">
         <v>39</v>
@@ -18135,7 +18063,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="B351" t="s">
         <v>39</v>
@@ -18175,7 +18103,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="B352" t="s">
         <v>39</v>
@@ -18215,7 +18143,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="B353" t="s">
         <v>39</v>
@@ -18255,7 +18183,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="B354" t="s">
         <v>39</v>
@@ -18295,7 +18223,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="B355" t="s">
         <v>39</v>
@@ -18335,7 +18263,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B356" t="s">
         <v>39</v>
@@ -18375,7 +18303,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="B357" t="s">
         <v>39</v>
@@ -18415,7 +18343,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="B358" t="s">
         <v>39</v>
@@ -18455,7 +18383,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="B359" t="s">
         <v>39</v>
@@ -18495,7 +18423,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -18535,7 +18463,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="B361" t="s">
         <v>39</v>
@@ -18575,7 +18503,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B362" t="s">
         <v>39</v>
@@ -18615,7 +18543,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -18655,7 +18583,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="B364" t="s">
         <v>39</v>
@@ -18695,7 +18623,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="B365" t="s">
         <v>39</v>
@@ -18735,7 +18663,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="B366" t="s">
         <v>39</v>
@@ -18775,7 +18703,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="B367" t="s">
         <v>39</v>
@@ -18815,7 +18743,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="B368" t="s">
         <v>39</v>
@@ -18855,7 +18783,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="B369" t="s">
         <v>39</v>
@@ -18895,7 +18823,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B370" t="s">
         <v>39</v>
@@ -18935,14 +18863,16 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B371" t="s">
-        <v>39</v>
-      </c>
-      <c r="C371"/>
+        <v>42</v>
+      </c>
+      <c r="C371" t="s">
+        <v>462</v>
+      </c>
       <c r="D371" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E371"/>
       <c r="F371"/>
@@ -18975,14 +18905,16 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B372" t="s">
-        <v>39</v>
-      </c>
-      <c r="C372"/>
+        <v>42</v>
+      </c>
+      <c r="C372" t="s">
+        <v>462</v>
+      </c>
       <c r="D372" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E372"/>
       <c r="F372"/>
@@ -19015,14 +18947,16 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="B373" t="s">
-        <v>39</v>
-      </c>
-      <c r="C373"/>
+        <v>42</v>
+      </c>
+      <c r="C373" t="s">
+        <v>468</v>
+      </c>
       <c r="D373" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E373"/>
       <c r="F373"/>
@@ -19055,15 +18989,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>394</v>
+        <v>534</v>
       </c>
       <c r="B374" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C374"/>
-      <c r="D374" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D374"/>
       <c r="E374"/>
       <c r="F374"/>
       <c r="G374"/>
@@ -19095,14 +19027,16 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
       <c r="B375" t="s">
-        <v>39</v>
-      </c>
-      <c r="C375"/>
+        <v>42</v>
+      </c>
+      <c r="C375" t="s">
+        <v>468</v>
+      </c>
       <c r="D375" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E375"/>
       <c r="F375"/>
@@ -19135,14 +19069,16 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="B376" t="s">
-        <v>39</v>
-      </c>
-      <c r="C376"/>
+        <v>42</v>
+      </c>
+      <c r="C376" t="s">
+        <v>462</v>
+      </c>
       <c r="D376" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E376"/>
       <c r="F376"/>
@@ -19175,14 +19111,16 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="B377" t="s">
-        <v>39</v>
-      </c>
-      <c r="C377"/>
+        <v>42</v>
+      </c>
+      <c r="C377" t="s">
+        <v>461</v>
+      </c>
       <c r="D377" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E377"/>
       <c r="F377"/>
@@ -19215,14 +19153,16 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
-      </c>
-      <c r="C378"/>
+        <v>42</v>
+      </c>
+      <c r="C378" t="s">
+        <v>462</v>
+      </c>
       <c r="D378" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E378"/>
       <c r="F378"/>
@@ -19255,14 +19195,16 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="B379" t="s">
-        <v>39</v>
-      </c>
-      <c r="C379"/>
+        <v>42</v>
+      </c>
+      <c r="C379" t="s">
+        <v>482</v>
+      </c>
       <c r="D379" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E379"/>
       <c r="F379"/>
@@ -19295,14 +19237,16 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B380" t="s">
-        <v>39</v>
-      </c>
-      <c r="C380"/>
+        <v>42</v>
+      </c>
+      <c r="C380" t="s">
+        <v>461</v>
+      </c>
       <c r="D380" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E380"/>
       <c r="F380"/>
@@ -19335,14 +19279,16 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="B381" t="s">
-        <v>39</v>
-      </c>
-      <c r="C381"/>
+        <v>42</v>
+      </c>
+      <c r="C381" t="s">
+        <v>468</v>
+      </c>
       <c r="D381" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E381"/>
       <c r="F381"/>
@@ -19375,14 +19321,16 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="B382" t="s">
-        <v>39</v>
-      </c>
-      <c r="C382"/>
+        <v>42</v>
+      </c>
+      <c r="C382" t="s">
+        <v>461</v>
+      </c>
       <c r="D382" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E382"/>
       <c r="F382"/>
@@ -19415,14 +19363,14 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="B383" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C383"/>
       <c r="D383" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="E383"/>
       <c r="F383"/>
@@ -19455,14 +19403,14 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B384" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C384"/>
       <c r="D384" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E384"/>
       <c r="F384"/>
@@ -19495,14 +19443,14 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="B385" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C385"/>
       <c r="D385" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E385"/>
       <c r="F385"/>
@@ -19535,14 +19483,14 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="B386" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C386"/>
       <c r="D386" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E386"/>
       <c r="F386"/>
@@ -19575,14 +19523,14 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="B387" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C387"/>
       <c r="D387" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E387"/>
       <c r="F387"/>
@@ -19615,14 +19563,16 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="B388" t="s">
-        <v>39</v>
-      </c>
-      <c r="C388"/>
+        <v>42</v>
+      </c>
+      <c r="C388" t="s">
+        <v>461</v>
+      </c>
       <c r="D388" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E388"/>
       <c r="F388"/>
@@ -19655,14 +19605,16 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="B389" t="s">
-        <v>39</v>
-      </c>
-      <c r="C389"/>
+        <v>42</v>
+      </c>
+      <c r="C389" t="s">
+        <v>498</v>
+      </c>
       <c r="D389" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E389"/>
       <c r="F389"/>
@@ -19695,14 +19647,16 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B390" t="s">
-        <v>39</v>
-      </c>
-      <c r="C390"/>
+        <v>42</v>
+      </c>
+      <c r="C390" t="s">
+        <v>482</v>
+      </c>
       <c r="D390" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E390"/>
       <c r="F390"/>
@@ -19735,14 +19689,16 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="B391" t="s">
-        <v>39</v>
-      </c>
-      <c r="C391"/>
+        <v>42</v>
+      </c>
+      <c r="C391" t="s">
+        <v>468</v>
+      </c>
       <c r="D391" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E391"/>
       <c r="F391"/>
@@ -19775,14 +19731,16 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="B392" t="s">
-        <v>39</v>
-      </c>
-      <c r="C392"/>
+        <v>42</v>
+      </c>
+      <c r="C392" t="s">
+        <v>446</v>
+      </c>
       <c r="D392" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E392"/>
       <c r="F392"/>
@@ -19815,14 +19773,16 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="B393" t="s">
-        <v>39</v>
-      </c>
-      <c r="C393"/>
+        <v>42</v>
+      </c>
+      <c r="C393" t="s">
+        <v>468</v>
+      </c>
       <c r="D393" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E393"/>
       <c r="F393"/>
@@ -19855,15 +19815,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="B394" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C394"/>
-      <c r="D394" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D394"/>
       <c r="E394"/>
       <c r="F394"/>
       <c r="G394"/>
@@ -19895,15 +19853,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="B395" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C395"/>
-      <c r="D395" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="D395"/>
       <c r="E395"/>
       <c r="F395"/>
       <c r="G395"/>
@@ -19935,14 +19891,16 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="B396" t="s">
-        <v>39</v>
-      </c>
-      <c r="C396"/>
+        <v>42</v>
+      </c>
+      <c r="C396" t="s">
+        <v>468</v>
+      </c>
       <c r="D396" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E396"/>
       <c r="F396"/>
@@ -19975,14 +19933,16 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="B397" t="s">
-        <v>39</v>
-      </c>
-      <c r="C397"/>
+        <v>42</v>
+      </c>
+      <c r="C397" t="s">
+        <v>495</v>
+      </c>
       <c r="D397" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E397"/>
       <c r="F397"/>
@@ -20015,14 +19975,16 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="B398" t="s">
-        <v>39</v>
-      </c>
-      <c r="C398"/>
+        <v>42</v>
+      </c>
+      <c r="C398" t="s">
+        <v>495</v>
+      </c>
       <c r="D398" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E398"/>
       <c r="F398"/>
@@ -20055,47 +20017,21 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>419</v>
-      </c>
-      <c r="B399" t="s">
-        <v>39</v>
-      </c>
-      <c r="C399"/>
-      <c r="D399" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E399"/>
-      <c r="F399"/>
-      <c r="G399"/>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
-      <c r="K399"/>
-      <c r="L399"/>
-      <c r="M399"/>
-      <c r="N399"/>
-      <c r="O399"/>
-      <c r="P399"/>
-      <c r="Q399"/>
-      <c r="R399"/>
-      <c r="S399"/>
-      <c r="T399"/>
-      <c r="U399"/>
-      <c r="V399"/>
-      <c r="W399"/>
-      <c r="X399"/>
-      <c r="Y399"/>
-      <c r="Z399"/>
-      <c r="AA399"/>
-      <c r="AB399"/>
-      <c r="AC399"/>
-      <c r="AD399"/>
-      <c r="AE399"/>
-      <c r="AF399"/>
+        <v>420</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C399" t="s">
+        <v>462</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>42</v>
@@ -20103,83 +20039,27 @@
       <c r="C400" t="s">
         <v>462</v>
       </c>
-      <c r="D400" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E400"/>
-      <c r="F400"/>
-      <c r="G400"/>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
-      <c r="K400"/>
-      <c r="L400"/>
-      <c r="M400"/>
-      <c r="N400"/>
-      <c r="O400"/>
-      <c r="P400"/>
-      <c r="Q400"/>
-      <c r="R400"/>
-      <c r="S400"/>
-      <c r="T400"/>
-      <c r="U400"/>
-      <c r="V400"/>
-      <c r="W400"/>
-      <c r="X400"/>
-      <c r="Y400"/>
-      <c r="Z400"/>
-      <c r="AA400"/>
-      <c r="AB400"/>
-      <c r="AC400"/>
-      <c r="AD400"/>
-      <c r="AE400"/>
-      <c r="AF400"/>
+      <c r="D400">
+        <v>1</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C401" t="s">
-        <v>462</v>
-      </c>
-      <c r="D401" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E401"/>
-      <c r="F401"/>
-      <c r="G401"/>
-      <c r="H401"/>
-      <c r="I401"/>
-      <c r="J401"/>
-      <c r="K401"/>
-      <c r="L401"/>
-      <c r="M401"/>
-      <c r="N401"/>
-      <c r="O401"/>
-      <c r="P401"/>
-      <c r="Q401"/>
-      <c r="R401"/>
-      <c r="S401"/>
-      <c r="T401"/>
-      <c r="U401"/>
-      <c r="V401"/>
-      <c r="W401"/>
-      <c r="X401"/>
-      <c r="Y401"/>
-      <c r="Z401"/>
-      <c r="AA401"/>
-      <c r="AB401"/>
-      <c r="AC401"/>
-      <c r="AD401"/>
-      <c r="AE401"/>
-      <c r="AF401"/>
+        <v>468</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>42</v>
@@ -20187,1039 +20067,334 @@
       <c r="C402" t="s">
         <v>468</v>
       </c>
-      <c r="D402" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E402"/>
-      <c r="F402"/>
-      <c r="G402"/>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
-      <c r="L402"/>
-      <c r="M402"/>
-      <c r="N402"/>
-      <c r="O402"/>
-      <c r="P402"/>
-      <c r="Q402"/>
-      <c r="R402"/>
-      <c r="S402"/>
-      <c r="T402"/>
-      <c r="U402"/>
-      <c r="V402"/>
-      <c r="W402"/>
-      <c r="X402"/>
-      <c r="Y402"/>
-      <c r="Z402"/>
-      <c r="AA402"/>
-      <c r="AB402"/>
-      <c r="AC402"/>
-      <c r="AD402"/>
-      <c r="AE402"/>
-      <c r="AF402"/>
+      <c r="D402">
+        <v>1</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C403" t="s">
-        <v>468</v>
-      </c>
-      <c r="D403" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E403"/>
-      <c r="F403"/>
-      <c r="G403"/>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
-      <c r="K403"/>
-      <c r="L403"/>
-      <c r="M403"/>
-      <c r="N403"/>
-      <c r="O403"/>
-      <c r="P403"/>
-      <c r="Q403"/>
-      <c r="R403"/>
-      <c r="S403"/>
-      <c r="T403"/>
-      <c r="U403"/>
-      <c r="V403"/>
-      <c r="W403"/>
-      <c r="X403"/>
-      <c r="Y403"/>
-      <c r="Z403"/>
-      <c r="AA403"/>
-      <c r="AB403"/>
-      <c r="AC403"/>
-      <c r="AD403"/>
-      <c r="AE403"/>
-      <c r="AF403"/>
+        <v>462</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C404" t="s">
-        <v>462</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E404"/>
-      <c r="F404"/>
-      <c r="G404"/>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
-      <c r="K404"/>
-      <c r="L404"/>
-      <c r="M404"/>
-      <c r="N404"/>
-      <c r="O404"/>
-      <c r="P404"/>
-      <c r="Q404"/>
-      <c r="R404"/>
-      <c r="S404"/>
-      <c r="T404"/>
-      <c r="U404"/>
-      <c r="V404"/>
-      <c r="W404"/>
-      <c r="X404"/>
-      <c r="Y404"/>
-      <c r="Z404"/>
-      <c r="AA404"/>
-      <c r="AB404"/>
-      <c r="AC404"/>
-      <c r="AD404"/>
-      <c r="AE404"/>
-      <c r="AF404"/>
+        <v>461</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C405" t="s">
-        <v>461</v>
-      </c>
-      <c r="D405" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E405"/>
-      <c r="F405"/>
-      <c r="G405"/>
-      <c r="H405"/>
-      <c r="I405"/>
-      <c r="J405"/>
-      <c r="K405"/>
-      <c r="L405"/>
-      <c r="M405"/>
-      <c r="N405"/>
-      <c r="O405"/>
-      <c r="P405"/>
-      <c r="Q405"/>
-      <c r="R405"/>
-      <c r="S405"/>
-      <c r="T405"/>
-      <c r="U405"/>
-      <c r="V405"/>
-      <c r="W405"/>
-      <c r="X405"/>
-      <c r="Y405"/>
-      <c r="Z405"/>
-      <c r="AA405"/>
-      <c r="AB405"/>
-      <c r="AC405"/>
-      <c r="AD405"/>
-      <c r="AE405"/>
-      <c r="AF405"/>
+        <v>513</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C406" t="s">
-        <v>514</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E406"/>
-      <c r="F406"/>
-      <c r="G406"/>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
-      <c r="K406"/>
-      <c r="L406"/>
-      <c r="M406"/>
-      <c r="N406"/>
-      <c r="O406"/>
-      <c r="P406"/>
-      <c r="Q406"/>
-      <c r="R406"/>
-      <c r="S406"/>
-      <c r="T406"/>
-      <c r="U406"/>
-      <c r="V406"/>
-      <c r="W406"/>
-      <c r="X406"/>
-      <c r="Y406"/>
-      <c r="Z406"/>
-      <c r="AA406"/>
-      <c r="AB406"/>
-      <c r="AC406"/>
-      <c r="AD406"/>
-      <c r="AE406"/>
-      <c r="AF406"/>
+        <v>462</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C407" t="s">
-        <v>462</v>
-      </c>
-      <c r="D407" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E407"/>
-      <c r="F407"/>
-      <c r="G407"/>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
-      <c r="K407"/>
-      <c r="L407"/>
-      <c r="M407"/>
-      <c r="N407"/>
-      <c r="O407"/>
-      <c r="P407"/>
-      <c r="Q407"/>
-      <c r="R407"/>
-      <c r="S407"/>
-      <c r="T407"/>
-      <c r="U407"/>
-      <c r="V407"/>
-      <c r="W407"/>
-      <c r="X407"/>
-      <c r="Y407"/>
-      <c r="Z407"/>
-      <c r="AA407"/>
-      <c r="AB407"/>
-      <c r="AC407"/>
-      <c r="AD407"/>
-      <c r="AE407"/>
-      <c r="AF407"/>
+        <v>511</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C408" t="s">
-        <v>512</v>
-      </c>
-      <c r="D408" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E408"/>
-      <c r="F408"/>
-      <c r="G408"/>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
-      <c r="K408"/>
-      <c r="L408"/>
-      <c r="M408"/>
-      <c r="N408"/>
-      <c r="O408"/>
-      <c r="P408"/>
-      <c r="Q408"/>
-      <c r="R408"/>
-      <c r="S408"/>
-      <c r="T408"/>
-      <c r="U408"/>
-      <c r="V408"/>
-      <c r="W408"/>
-      <c r="X408"/>
-      <c r="Y408"/>
-      <c r="Z408"/>
-      <c r="AA408"/>
-      <c r="AB408"/>
-      <c r="AC408"/>
-      <c r="AD408"/>
-      <c r="AE408"/>
-      <c r="AF408"/>
+        <v>482</v>
+      </c>
+      <c r="D408">
+        <v>6</v>
+      </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C409" t="s">
-        <v>483</v>
-      </c>
-      <c r="D409" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E409"/>
-      <c r="F409"/>
-      <c r="G409"/>
-      <c r="H409"/>
-      <c r="I409"/>
-      <c r="J409"/>
-      <c r="K409"/>
-      <c r="L409"/>
-      <c r="M409"/>
-      <c r="N409"/>
-      <c r="O409"/>
-      <c r="P409"/>
-      <c r="Q409"/>
-      <c r="R409"/>
-      <c r="S409"/>
-      <c r="T409"/>
-      <c r="U409"/>
-      <c r="V409"/>
-      <c r="W409"/>
-      <c r="X409"/>
-      <c r="Y409"/>
-      <c r="Z409"/>
-      <c r="AA409"/>
-      <c r="AB409"/>
-      <c r="AC409"/>
-      <c r="AD409"/>
-      <c r="AE409"/>
-      <c r="AF409"/>
+        <v>461</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C410" t="s">
-        <v>461</v>
-      </c>
-      <c r="D410" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E410"/>
-      <c r="F410"/>
-      <c r="G410"/>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
-      <c r="K410"/>
-      <c r="L410"/>
-      <c r="M410"/>
-      <c r="N410"/>
-      <c r="O410"/>
-      <c r="P410"/>
-      <c r="Q410"/>
-      <c r="R410"/>
-      <c r="S410"/>
-      <c r="T410"/>
-      <c r="U410"/>
-      <c r="V410"/>
-      <c r="W410"/>
-      <c r="X410"/>
-      <c r="Y410"/>
-      <c r="Z410"/>
-      <c r="AA410"/>
-      <c r="AB410"/>
-      <c r="AC410"/>
-      <c r="AD410"/>
-      <c r="AE410"/>
-      <c r="AF410"/>
+        <v>468</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C411" t="s">
-        <v>468</v>
-      </c>
-      <c r="D411" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E411"/>
-      <c r="F411"/>
-      <c r="G411"/>
-      <c r="H411"/>
-      <c r="I411"/>
-      <c r="J411"/>
-      <c r="K411"/>
-      <c r="L411"/>
-      <c r="M411"/>
-      <c r="N411"/>
-      <c r="O411"/>
-      <c r="P411"/>
-      <c r="Q411"/>
-      <c r="R411"/>
-      <c r="S411"/>
-      <c r="T411"/>
-      <c r="U411"/>
-      <c r="V411"/>
-      <c r="W411"/>
-      <c r="X411"/>
-      <c r="Y411"/>
-      <c r="Z411"/>
-      <c r="AA411"/>
-      <c r="AB411"/>
-      <c r="AC411"/>
-      <c r="AD411"/>
-      <c r="AE411"/>
-      <c r="AF411"/>
+        <v>512</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C412" t="s">
-        <v>513</v>
-      </c>
-      <c r="D412" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E412"/>
-      <c r="F412"/>
-      <c r="G412"/>
-      <c r="H412"/>
-      <c r="I412"/>
-      <c r="J412"/>
-      <c r="K412"/>
-      <c r="L412"/>
-      <c r="M412"/>
-      <c r="N412"/>
-      <c r="O412"/>
-      <c r="P412"/>
-      <c r="Q412"/>
-      <c r="R412"/>
-      <c r="S412"/>
-      <c r="T412"/>
-      <c r="U412"/>
-      <c r="V412"/>
-      <c r="W412"/>
-      <c r="X412"/>
-      <c r="Y412"/>
-      <c r="Z412"/>
-      <c r="AA412"/>
-      <c r="AB412"/>
-      <c r="AC412"/>
-      <c r="AD412"/>
-      <c r="AE412"/>
-      <c r="AF412"/>
+        <v>512</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C413" t="s">
-        <v>513</v>
-      </c>
-      <c r="D413" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E413"/>
-      <c r="F413"/>
-      <c r="G413"/>
-      <c r="H413"/>
-      <c r="I413"/>
-      <c r="J413"/>
-      <c r="K413"/>
-      <c r="L413"/>
-      <c r="M413"/>
-      <c r="N413"/>
-      <c r="O413"/>
-      <c r="P413"/>
-      <c r="Q413"/>
-      <c r="R413"/>
-      <c r="S413"/>
-      <c r="T413"/>
-      <c r="U413"/>
-      <c r="V413"/>
-      <c r="W413"/>
-      <c r="X413"/>
-      <c r="Y413"/>
-      <c r="Z413"/>
-      <c r="AA413"/>
-      <c r="AB413"/>
-      <c r="AC413"/>
-      <c r="AD413"/>
-      <c r="AE413"/>
-      <c r="AF413"/>
+        <v>461</v>
+      </c>
+      <c r="D413">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C414" t="s">
-        <v>461</v>
-      </c>
-      <c r="D414" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E414"/>
-      <c r="F414"/>
-      <c r="G414"/>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="J414"/>
-      <c r="K414"/>
-      <c r="L414"/>
-      <c r="M414"/>
-      <c r="N414"/>
-      <c r="O414"/>
-      <c r="P414"/>
-      <c r="Q414"/>
-      <c r="R414"/>
-      <c r="S414"/>
-      <c r="T414"/>
-      <c r="U414"/>
-      <c r="V414"/>
-      <c r="W414"/>
-      <c r="X414"/>
-      <c r="Y414"/>
-      <c r="Z414"/>
-      <c r="AA414"/>
-      <c r="AB414"/>
-      <c r="AC414"/>
-      <c r="AD414"/>
-      <c r="AE414"/>
-      <c r="AF414"/>
+        <v>511</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C415" t="s">
-        <v>512</v>
-      </c>
-      <c r="D415" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E415"/>
-      <c r="F415"/>
-      <c r="G415"/>
-      <c r="H415"/>
-      <c r="I415"/>
-      <c r="J415"/>
-      <c r="K415"/>
-      <c r="L415"/>
-      <c r="M415"/>
-      <c r="N415"/>
-      <c r="O415"/>
-      <c r="P415"/>
-      <c r="Q415"/>
-      <c r="R415"/>
-      <c r="S415"/>
-      <c r="T415"/>
-      <c r="U415"/>
-      <c r="V415"/>
-      <c r="W415"/>
-      <c r="X415"/>
-      <c r="Y415"/>
-      <c r="Z415"/>
-      <c r="AA415"/>
-      <c r="AB415"/>
-      <c r="AC415"/>
-      <c r="AD415"/>
-      <c r="AE415"/>
-      <c r="AF415"/>
+      <c r="D415">
+        <v>35</v>
+      </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C416"/>
-      <c r="D416" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="E416"/>
-      <c r="F416"/>
-      <c r="G416"/>
-      <c r="H416"/>
-      <c r="I416"/>
-      <c r="J416"/>
-      <c r="K416"/>
-      <c r="L416"/>
-      <c r="M416"/>
-      <c r="N416"/>
-      <c r="O416"/>
-      <c r="P416"/>
-      <c r="Q416"/>
-      <c r="R416"/>
-      <c r="S416"/>
-      <c r="T416"/>
-      <c r="U416"/>
-      <c r="V416"/>
-      <c r="W416"/>
-      <c r="X416"/>
-      <c r="Y416"/>
-      <c r="Z416"/>
-      <c r="AA416"/>
-      <c r="AB416"/>
-      <c r="AC416"/>
-      <c r="AD416"/>
-      <c r="AE416"/>
-      <c r="AF416"/>
+      <c r="D416">
+        <v>5</v>
+      </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C417"/>
-      <c r="D417" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E417"/>
-      <c r="F417"/>
-      <c r="G417"/>
-      <c r="H417"/>
-      <c r="I417"/>
-      <c r="J417"/>
-      <c r="K417"/>
-      <c r="L417"/>
-      <c r="M417"/>
-      <c r="N417"/>
-      <c r="O417"/>
-      <c r="P417"/>
-      <c r="Q417"/>
-      <c r="R417"/>
-      <c r="S417"/>
-      <c r="T417"/>
-      <c r="U417"/>
-      <c r="V417"/>
-      <c r="W417"/>
-      <c r="X417"/>
-      <c r="Y417"/>
-      <c r="Z417"/>
-      <c r="AA417"/>
-      <c r="AB417"/>
-      <c r="AC417"/>
-      <c r="AD417"/>
-      <c r="AE417"/>
-      <c r="AF417"/>
+      <c r="C417" t="s">
+        <v>512</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C418" t="s">
-        <v>513</v>
-      </c>
-      <c r="D418" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E418"/>
-      <c r="F418"/>
-      <c r="G418"/>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
-      <c r="K418"/>
-      <c r="L418"/>
-      <c r="M418"/>
-      <c r="N418"/>
-      <c r="O418"/>
-      <c r="P418"/>
-      <c r="Q418"/>
-      <c r="R418"/>
-      <c r="S418"/>
-      <c r="T418"/>
-      <c r="U418"/>
-      <c r="V418"/>
-      <c r="W418"/>
-      <c r="X418"/>
-      <c r="Y418"/>
-      <c r="Z418"/>
-      <c r="AA418"/>
-      <c r="AB418"/>
-      <c r="AC418"/>
-      <c r="AD418"/>
-      <c r="AE418"/>
-      <c r="AF418"/>
+      <c r="D418">
+        <v>5</v>
+      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C419"/>
-      <c r="D419" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E419"/>
-      <c r="F419"/>
-      <c r="G419"/>
-      <c r="H419"/>
-      <c r="I419"/>
-      <c r="J419"/>
-      <c r="K419"/>
-      <c r="L419"/>
-      <c r="M419"/>
-      <c r="N419"/>
-      <c r="O419"/>
-      <c r="P419"/>
-      <c r="Q419"/>
-      <c r="R419"/>
-      <c r="S419"/>
-      <c r="T419"/>
-      <c r="U419"/>
-      <c r="V419"/>
-      <c r="W419"/>
-      <c r="X419"/>
-      <c r="Y419"/>
-      <c r="Z419"/>
-      <c r="AA419"/>
-      <c r="AB419"/>
-      <c r="AC419"/>
-      <c r="AD419"/>
-      <c r="AE419"/>
-      <c r="AF419"/>
+      <c r="D419">
+        <v>5</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C420"/>
-      <c r="D420" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E420"/>
-      <c r="F420"/>
-      <c r="G420"/>
-      <c r="H420"/>
-      <c r="I420"/>
-      <c r="J420"/>
-      <c r="K420"/>
-      <c r="L420"/>
-      <c r="M420"/>
-      <c r="N420"/>
-      <c r="O420"/>
-      <c r="P420"/>
-      <c r="Q420"/>
-      <c r="R420"/>
-      <c r="S420"/>
-      <c r="T420"/>
-      <c r="U420"/>
-      <c r="V420"/>
-      <c r="W420"/>
-      <c r="X420"/>
-      <c r="Y420"/>
-      <c r="Z420"/>
-      <c r="AA420"/>
-      <c r="AB420"/>
-      <c r="AC420"/>
-      <c r="AD420"/>
-      <c r="AE420"/>
-      <c r="AF420"/>
+      <c r="D420">
+        <v>5</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C421"/>
-      <c r="D421" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E421"/>
-      <c r="F421"/>
-      <c r="G421"/>
-      <c r="H421"/>
-      <c r="I421"/>
-      <c r="J421"/>
-      <c r="K421"/>
-      <c r="L421"/>
-      <c r="M421"/>
-      <c r="N421"/>
-      <c r="O421"/>
-      <c r="P421"/>
-      <c r="Q421"/>
-      <c r="R421"/>
-      <c r="S421"/>
-      <c r="T421"/>
-      <c r="U421"/>
-      <c r="V421"/>
-      <c r="W421"/>
-      <c r="X421"/>
-      <c r="Y421"/>
-      <c r="Z421"/>
-      <c r="AA421"/>
-      <c r="AB421"/>
-      <c r="AC421"/>
-      <c r="AD421"/>
-      <c r="AE421"/>
-      <c r="AF421"/>
+      <c r="C421" t="s">
+        <v>461</v>
+      </c>
+      <c r="D421">
+        <v>6</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C422" t="s">
-        <v>461</v>
-      </c>
-      <c r="D422" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E422"/>
-      <c r="F422"/>
-      <c r="G422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
-      <c r="K422"/>
-      <c r="L422"/>
-      <c r="M422"/>
-      <c r="N422"/>
-      <c r="O422"/>
-      <c r="P422"/>
-      <c r="Q422"/>
-      <c r="R422"/>
-      <c r="S422"/>
-      <c r="T422"/>
-      <c r="U422"/>
-      <c r="V422"/>
-      <c r="W422"/>
-      <c r="X422"/>
-      <c r="Y422"/>
-      <c r="Z422"/>
-      <c r="AA422"/>
-      <c r="AB422"/>
-      <c r="AC422"/>
-      <c r="AD422"/>
-      <c r="AE422"/>
-      <c r="AF422"/>
+        <v>498</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C423" t="s">
-        <v>499</v>
-      </c>
-      <c r="D423" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E423"/>
-      <c r="F423"/>
-      <c r="G423"/>
-      <c r="H423"/>
-      <c r="I423"/>
-      <c r="J423"/>
-      <c r="K423"/>
-      <c r="L423"/>
-      <c r="M423"/>
-      <c r="N423"/>
-      <c r="O423"/>
-      <c r="P423"/>
-      <c r="Q423"/>
-      <c r="R423"/>
-      <c r="S423"/>
-      <c r="T423"/>
-      <c r="U423"/>
-      <c r="V423"/>
-      <c r="W423"/>
-      <c r="X423"/>
-      <c r="Y423"/>
-      <c r="Z423"/>
-      <c r="AA423"/>
-      <c r="AB423"/>
-      <c r="AC423"/>
-      <c r="AD423"/>
-      <c r="AE423"/>
-      <c r="AF423"/>
+        <v>482</v>
+      </c>
+      <c r="D423">
+        <v>12</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C424" t="s">
-        <v>483</v>
-      </c>
-      <c r="D424" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E424"/>
-      <c r="F424"/>
-      <c r="G424"/>
-      <c r="H424"/>
-      <c r="I424"/>
-      <c r="J424"/>
-      <c r="K424"/>
-      <c r="L424"/>
-      <c r="M424"/>
-      <c r="N424"/>
-      <c r="O424"/>
-      <c r="P424"/>
-      <c r="Q424"/>
-      <c r="R424"/>
-      <c r="S424"/>
-      <c r="T424"/>
-      <c r="U424"/>
-      <c r="V424"/>
-      <c r="W424"/>
-      <c r="X424"/>
-      <c r="Y424"/>
-      <c r="Z424"/>
-      <c r="AA424"/>
-      <c r="AB424"/>
-      <c r="AC424"/>
-      <c r="AD424"/>
-      <c r="AE424"/>
-      <c r="AF424"/>
+        <v>468</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C425" t="s">
-        <v>468</v>
-      </c>
-      <c r="D425" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E425"/>
-      <c r="F425"/>
-      <c r="G425"/>
-      <c r="H425"/>
-      <c r="I425"/>
-      <c r="J425"/>
-      <c r="K425"/>
-      <c r="L425"/>
-      <c r="M425"/>
-      <c r="N425"/>
-      <c r="O425"/>
-      <c r="P425"/>
-      <c r="Q425"/>
-      <c r="R425"/>
-      <c r="S425"/>
-      <c r="T425"/>
-      <c r="U425"/>
-      <c r="V425"/>
-      <c r="W425"/>
-      <c r="X425"/>
-      <c r="Y425"/>
-      <c r="Z425"/>
-      <c r="AA425"/>
-      <c r="AB425"/>
-      <c r="AC425"/>
-      <c r="AD425"/>
-      <c r="AE425"/>
-      <c r="AF425"/>
+        <v>446</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C426" t="s">
-        <v>446</v>
-      </c>
-      <c r="D426" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E426"/>
-      <c r="F426"/>
-      <c r="G426"/>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
-      <c r="K426"/>
-      <c r="L426"/>
-      <c r="M426"/>
-      <c r="N426"/>
-      <c r="O426"/>
-      <c r="P426"/>
-      <c r="Q426"/>
-      <c r="R426"/>
-      <c r="S426"/>
-      <c r="T426"/>
-      <c r="U426"/>
-      <c r="V426"/>
-      <c r="W426"/>
-      <c r="X426"/>
-      <c r="Y426"/>
-      <c r="Z426"/>
-      <c r="AA426"/>
-      <c r="AB426"/>
-      <c r="AC426"/>
-      <c r="AD426"/>
-      <c r="AE426"/>
-      <c r="AF426"/>
+        <v>468</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>42</v>
@@ -21227,166 +20402,40 @@
       <c r="C427" t="s">
         <v>468</v>
       </c>
-      <c r="D427" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E427"/>
-      <c r="F427"/>
-      <c r="G427"/>
-      <c r="H427"/>
-      <c r="I427"/>
-      <c r="J427"/>
-      <c r="K427"/>
-      <c r="L427"/>
-      <c r="M427"/>
-      <c r="N427"/>
-      <c r="O427"/>
-      <c r="P427"/>
-      <c r="Q427"/>
-      <c r="R427"/>
-      <c r="S427"/>
-      <c r="T427"/>
-      <c r="U427"/>
-      <c r="V427"/>
-      <c r="W427"/>
-      <c r="X427"/>
-      <c r="Y427"/>
-      <c r="Z427"/>
-      <c r="AA427"/>
-      <c r="AB427"/>
-      <c r="AC427"/>
-      <c r="AD427"/>
-      <c r="AE427"/>
-      <c r="AF427"/>
+      <c r="D427">
+        <v>1</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C428" t="s">
-        <v>468</v>
-      </c>
-      <c r="D428" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E428"/>
-      <c r="F428"/>
-      <c r="G428"/>
-      <c r="H428"/>
-      <c r="I428"/>
-      <c r="J428"/>
-      <c r="K428"/>
-      <c r="L428"/>
-      <c r="M428"/>
-      <c r="N428"/>
-      <c r="O428"/>
-      <c r="P428"/>
-      <c r="Q428"/>
-      <c r="R428"/>
-      <c r="S428"/>
-      <c r="T428"/>
-      <c r="U428"/>
-      <c r="V428"/>
-      <c r="W428"/>
-      <c r="X428"/>
-      <c r="Y428"/>
-      <c r="Z428"/>
-      <c r="AA428"/>
-      <c r="AB428"/>
-      <c r="AC428"/>
-      <c r="AD428"/>
-      <c r="AE428"/>
-      <c r="AF428"/>
+        <v>495</v>
+      </c>
+      <c r="D428">
+        <v>4</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C429" t="s">
-        <v>496</v>
-      </c>
-      <c r="D429" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E429"/>
-      <c r="F429"/>
-      <c r="G429"/>
-      <c r="H429"/>
-      <c r="I429"/>
-      <c r="J429"/>
-      <c r="K429"/>
-      <c r="L429"/>
-      <c r="M429"/>
-      <c r="N429"/>
-      <c r="O429"/>
-      <c r="P429"/>
-      <c r="Q429"/>
-      <c r="R429"/>
-      <c r="S429"/>
-      <c r="T429"/>
-      <c r="U429"/>
-      <c r="V429"/>
-      <c r="W429"/>
-      <c r="X429"/>
-      <c r="Y429"/>
-      <c r="Z429"/>
-      <c r="AA429"/>
-      <c r="AB429"/>
-      <c r="AC429"/>
-      <c r="AD429"/>
-      <c r="AE429"/>
-      <c r="AF429"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>445</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C430" t="s">
-        <v>496</v>
-      </c>
-      <c r="D430" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E430"/>
-      <c r="F430"/>
-      <c r="G430"/>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
-      <c r="K430"/>
-      <c r="L430"/>
-      <c r="M430"/>
-      <c r="N430"/>
-      <c r="O430"/>
-      <c r="P430"/>
-      <c r="Q430"/>
-      <c r="R430"/>
-      <c r="S430"/>
-      <c r="T430"/>
-      <c r="U430"/>
-      <c r="V430"/>
-      <c r="W430"/>
-      <c r="X430"/>
-      <c r="Y430"/>
-      <c r="Z430"/>
-      <c r="AA430"/>
-      <c r="AB430"/>
-      <c r="AC430"/>
-      <c r="AD430"/>
-      <c r="AE430"/>
-      <c r="AF430"/>
-    </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D485">
+        <v>495</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D484">
         <v>0</v>
       </c>
     </row>
